--- a/Document/Android开发.xlsx
+++ b/Document/Android开发.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="60" windowWidth="30440" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="60" windowWidth="30440" windowHeight="19680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Android开发" sheetId="1" r:id="rId1"/>
+    <sheet name="开发工具Android Studio" sheetId="3" r:id="rId2"/>
+    <sheet name="调试模拟器Genymotion" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Android开发学习过程与进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,13 +269,116 @@
   </si>
   <si>
     <t>singleInstance</t>
+  </si>
+  <si>
+    <t>开发环境搭载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java环境配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求JDK1.7 以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果之前正常安装了JDK,则在安装Android Studio时,会自动找到JDK的安装路劲,在本人在安装的时候，没有提示JDK相关配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在安装完成之后，也可以通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>File-&gt;Other Setting-&gt;Default Project Structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 找到JDK的配置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载地址:http://www.android-studio.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载完成Android Studio的dmg文件，双击,将Android Studio拖入Application,接下来需要一些配置以完成安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Application中打开，如果是第一次，不存在以前的版本,直接点击ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start a new Android Studio project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置工程名字和工程的路劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.genymotion.net</t>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载之前必须前注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载Mac OX版本资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +419,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +449,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -358,15 +471,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -387,11 +502,625 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="8636000"/>
+          <a:ext cx="8343900" cy="6604000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="19431000"/>
+          <a:ext cx="5016500" cy="3263900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="16624300"/>
+          <a:ext cx="7035800" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="23317200"/>
+          <a:ext cx="10172700" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="31305500"/>
+          <a:ext cx="10121900" cy="6680200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="39293800"/>
+          <a:ext cx="10121900" cy="6718300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="47282100"/>
+          <a:ext cx="10109200" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="55486300"/>
+          <a:ext cx="10134600" cy="6680200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="63690500"/>
+          <a:ext cx="8420100" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="69951600"/>
+          <a:ext cx="9309100" cy="8013700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="79235300"/>
+          <a:ext cx="9131300" cy="7683500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="88303100"/>
+          <a:ext cx="9144000" cy="7632700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="97370900"/>
+          <a:ext cx="9105900" cy="7658100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="106438700"/>
+          <a:ext cx="9055100" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="1943100"/>
+          <a:ext cx="10617200" cy="4749800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>570</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="115506500"/>
+          <a:ext cx="13423900" cy="8572500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,9 +1445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H105"/>
+  <dimension ref="B4:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -727,37 +1456,32 @@
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="2:7">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -765,236 +1489,236 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="2:7">
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="F14" s="1" t="s">
+    <row r="15" spans="2:7">
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="F16" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="H26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="G30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="G32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="G33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="F36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="G37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="F39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="4:7">
       <c r="G40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="4:7">
       <c r="D43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="4:7">
       <c r="E44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="4:7">
       <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="4:7">
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="4:7">
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="4:6">
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="F50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="F51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="E52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="4:6">
       <c r="F53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="4:6">
       <c r="F54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="F55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="D57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="E58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="E59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="4:6">
       <c r="E60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="E61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="D63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="E64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="3:5">
       <c r="E65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="3:5">
       <c r="E66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="E67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="3:5">
@@ -1002,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="3:5">
@@ -1010,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="3:4">
@@ -1018,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="3:4">
@@ -1026,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -1052,6 +1776,166 @@
     <row r="105" spans="3:3">
       <c r="C105" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E584"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="E36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5">
+      <c r="C294" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" spans="3:5">
+      <c r="E295" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="583" spans="3:4">
+      <c r="C583" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="584" spans="3:4">
+      <c r="D584" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Android开发.xlsx
+++ b/Document/Android开发.xlsx
@@ -4,13 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="60" windowWidth="30440" windowHeight="19680" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-100" yWindow="100" windowWidth="30440" windowHeight="19680" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Android开发" sheetId="1" r:id="rId1"/>
-    <sheet name="开发工具Android Studio" sheetId="3" r:id="rId2"/>
-    <sheet name="调试模拟器Genymotion" sheetId="2" r:id="rId3"/>
+    <sheet name="目录" sheetId="7" r:id="rId1"/>
+    <sheet name="环境搭载" sheetId="3" r:id="rId2"/>
+    <sheet name="Android studio使用" sheetId="5" r:id="rId3"/>
+    <sheet name="Gradle" sheetId="4" r:id="rId4"/>
+    <sheet name="模拟器Genymotion" sheetId="2" r:id="rId5"/>
+    <sheet name="Android基础" sheetId="1" r:id="rId6"/>
+    <sheet name="常见问题及解决办法" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
+    <definedName name="环境搭载_具体过程">环境搭载!$C$146</definedName>
+    <definedName name="环境搭载_要求与配置">环境搭载!$C$11</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,24 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="198">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDK 1.7 or later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac OX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java环境配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,8 +284,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>在安装完成之后，也可以通过</t>
+    <t>IDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载地址:http://www.android-studio.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载完成Android Studio的dmg文件，双击,将Android Studio拖入Application,接下来需要一些配置以完成安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Application中打开，如果是第一次，不存在以前的版本,直接点击ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start a new Android Studio project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置工程名字和工程的路劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.genymotion.net</t>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载之前必须前注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载Mac OX版本资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在后面Android Studio安装完成之后，也可以通过</t>
     </r>
     <r>
       <rPr>
@@ -315,11 +363,886 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载地址:http://www.android-studio.org</t>
+    <t>在安装之前,可以确认JDK的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle的目录与版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Applications/Android Studio.app/Contents/gradle/gradle-2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/&lt;User Name&gt;/.gradle/wrapper/dists/gradle-2.10-all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDK与SDK都是一套开发工具,SDK针对JAVA,NDK可以开发编译C/C++,在涉及到最内存等底层直接操作的,需要ndk,用java则相对比较困难</t>
+  </si>
+  <si>
+    <t>Gradle环境配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程的Gradle文件说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    buildTypes {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        release {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>dependencies {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">apply </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'com.android.application'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    compileSdkVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">buildToolsVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"23.0.3"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>defaultConfig {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        applicationId </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"com.develop.sokasyn.helloworld"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">minSdkVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">targetSdkVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">versionCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">versionName </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1.0"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            minifyEnabled </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000043"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>proguardFiles getDefaultProguardFile(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'proguard-android.txt'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'proguard-rules.pro'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    compile fileTree(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'libs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'*.jar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    testCompile </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'junit:junit:4.12'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">compile </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'com.android.support:appcompat-v7:23.3.0'</t>
+    </r>
+  </si>
+  <si>
+    <t>项目工程的根目录下和app目录下都有一个build.gradle文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app目录下的build.gradle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android platform下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Android SDK管理中选择需要下载的SDK Platforms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(sdk platforms 和 api lever是一一对应关系,两种叫法,如Android 6.0对应的是api 23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求与配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 编译SDK的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   // build tools的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 应用的包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 编译libs目录下的所有jar包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 声明是Android程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于Gradle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio使用Gradle构建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工程下的build.gradle文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上android{...} 中配置了所有android构建的参数，这里也就是Android DSL的入口点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入新工程报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法参考:Gradle DSL method not found</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    compileSdkVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio的project 相当于 Eclipse的workspace</t>
+  </si>
+  <si>
+    <t>Android Studio的module 相当于 Eclipse的project</t>
+  </si>
+  <si>
+    <t>所以新建一个项目的时候，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认有一个module叫做"app",如果需要再创建一个应用,则新建module,通过&lt;右键 - Refactor - Rename&gt;来更改名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程与模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航条上（非Project面板上）右键模块，如下图。</t>
+  </si>
+  <si>
+    <t>在settings.gradle 删除它的引用</t>
+  </si>
+  <si>
+    <t>退出Android Studio在资源管理器中删除模块目录</t>
+  </si>
+  <si>
+    <t>案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入Dcloud的Hbuilder-Hello时候就报了这个错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Top-level build file where you can add configuration options common to all sub-projects/modules.</t>
+  </si>
+  <si>
+    <t>buildscript {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    repositories {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        jcenter()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dependencies {</t>
+  </si>
+  <si>
+    <t>allprojects {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        classpath </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'com.android.tools.build:gradle:2.0.0'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">buildToolsVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'23.0.3'</t>
+    </r>
+  </si>
+  <si>
+    <t>错误原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 引进项目时，自动查找本机是否有项目设置的SDK版本，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译成功,没有出现Gradle DSL method not found: 'android()' 的错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即该文件的代码变成以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入工程到Android studio的时候，如果gradle的配置不正确，会导致应用无法正常运行,如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android  SDK build tool下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于Android SDK 与 Android NDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境搭载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器Genymotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio的使用</t>
+  </si>
+  <si>
+    <t>使用领域专用语言（Domain Specific Language）来描述和处理构建逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Groovy语言为基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要面向的是Java语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它插件时可以暴露自己的DSL和API来让Gradle构建文件使用。</t>
+  </si>
+  <si>
+    <r>
+      <t>Gradle sync failed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gradle DSL method not found: 'android()'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再重新编译:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>build - rebuild project</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码中的存在中文注释可能会引起该Gradle报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若发现没有，我们会在project structure修改成自己的SDK。然而，修改后，Android Studio 会自动在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程下的build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里添加android{…} dependencies{}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这可能会跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原app项目下的build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的配置有冲突</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是报错的版本中,工程下的build.gradle文件的源代码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将工程下的build.gradle文件中的android{}和dependencies{}删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app项目下的build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件(不是工程下的build.gradle文件)加入如下代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks.withType(JavaCompile) {  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    options.encoding = "UTF-8"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">}  </t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Gradle2.0+ 之前，将JavaCompile改成Compile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入项目之后,编译项目时,在Gradle控制台报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle编译错误:编码 UTF-8 的不可映射字符的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带的模拟器启动速度慢，占用资源大，解决办法是真机调试,另外就是用一个第三方的模拟器Genymotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,50 +1250,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载完成Android Studio的dmg文件，双击,将Android Studio拖入Application,接下来需要一些配置以完成安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Application中打开，如果是第一次，不存在以前的版本,直接点击ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start a new Android Studio project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置工程名字和工程的路劲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟器调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.genymotion.net</t>
-  </si>
-  <si>
-    <t>下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载之前必须前注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载Mac OX版本资源</t>
+    <t>使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程/项目的目录结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio调试打印log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 的控制台还是很多的，Gradle log,Event log,Run log等，那么在程序中为了调试，写的打印log，在哪里查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Android Monitor中，由于该</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +1278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,16 +1331,67 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000043"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF808080"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -448,8 +1399,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -472,16 +1503,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="35">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -492,6 +1608,13 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -503,6 +1626,12 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,13 +1645,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -554,13 +1683,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -592,13 +1721,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -630,13 +1759,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -668,13 +1797,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -706,13 +1835,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -744,13 +1873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -782,13 +1911,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -820,13 +1949,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -858,13 +1987,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -896,13 +2025,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -934,13 +2063,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>517</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>548</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -972,13 +2101,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>559</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>482</xdr:row>
+      <xdr:row>590</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1010,13 +2139,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>632</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1048,13 +2177,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1086,13 +2215,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>535</xdr:row>
+      <xdr:row>643</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>570</xdr:row>
+      <xdr:row>678</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1112,6 +2241,282 @@
         <a:xfrm>
           <a:off x="3441700" y="115506500"/>
           <a:ext cx="13423900" cy="8572500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="6908800"/>
+          <a:ext cx="10134600" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="10795000"/>
+          <a:ext cx="11811000" cy="8534400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="20294600"/>
+          <a:ext cx="11836400" cy="8547100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="2413000"/>
+          <a:ext cx="11772900" cy="8470900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="1295400"/>
+          <a:ext cx="10477500" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="20510500"/>
+          <a:ext cx="13614400" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="15328900"/>
+          <a:ext cx="14300200" cy="2082800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,341 +2850,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H105"/>
+  <dimension ref="B6:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C18" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="G22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="G24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8">
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8">
-      <c r="H26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8">
-      <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8">
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8">
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="G31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8">
-      <c r="G32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="G33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="F36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="G37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="F39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="G40" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7">
-      <c r="E44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7">
-      <c r="E46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7">
-      <c r="F47" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7">
-      <c r="E48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="F49" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="F50" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6">
-      <c r="F51" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="E52" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="F53" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6">
-      <c r="F54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6">
-      <c r="F55" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="E58" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="E59" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6">
-      <c r="E60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="E61" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6">
-      <c r="D63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6">
-      <c r="E64" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="E65" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="E66" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="E67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5">
-      <c r="C70" s="1">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="1">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="1">
-        <v>4</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="1">
-        <v>5</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="1" t="s">
-        <v>8</v>
+      <c r="C22" s="23" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" location="环境搭载!A1" tooltip="Android 环境搭载(Mac)" display="环境搭载"/>
+    <hyperlink ref="D10" location="'Android studio使用'!A1" tooltip="Android Studio工具的使用" display="Android Studio的使用"/>
+    <hyperlink ref="D12" location="Gradle!A1" tooltip="Android Stuio Gradle" display="Gradle"/>
+    <hyperlink ref="D14" location="模拟器Genymotion!A1" tooltip="Android调试模拟器" display="模拟器Genymotion"/>
+    <hyperlink ref="C18" location="Android基础!A1" tooltip="Android基础" display="Android基础"/>
+    <hyperlink ref="C22" location="常见问题及解决办法!A1" tooltip="常见问题" display="常见问题"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1792,9 +2928,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E584"/>
+  <dimension ref="A1:E692"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -1802,93 +2941,168 @@
     <col min="2" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5">
-      <c r="C4" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
-      <c r="D6" s="3" t="s">
+    <row r="50" spans="3:5">
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="E51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="E7" s="3" t="s">
+    <row r="53" spans="3:5">
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="E54" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="E55" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="3">
+        <v>4</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143" s="3">
+        <v>5</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="D144" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="D147" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="E8" s="3" t="s">
+    <row r="184" spans="4:4">
+      <c r="D184" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
-      <c r="E9" s="3" t="s">
+    <row r="402" spans="3:5">
+      <c r="C402" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="D34" s="3" t="s">
+    <row r="403" spans="3:5">
+      <c r="E403" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="E35" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="E36" s="3" t="s">
+    <row r="432" spans="5:5">
+      <c r="E432" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="3" t="s">
+    <row r="691" spans="3:4">
+      <c r="C691" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
-      <c r="D39" s="3" t="s">
+    <row r="692" spans="3:4">
+      <c r="D692" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="294" spans="3:5">
-      <c r="C294" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5">
-      <c r="E295" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="324" spans="5:5">
-      <c r="E324" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="583" spans="3:4">
-      <c r="C583" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="584" spans="3:4">
-      <c r="D584" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" location="环境搭载_要求与配置" display="要求与配置"/>
+    <hyperlink ref="C6" location="环境搭载_具体过程" display="具体过程"/>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -1902,44 +3116,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C10"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="1" t="s">
-        <v>83</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1948,4 +3242,2153 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q150"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="C76" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="D78" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="4:17">
+      <c r="D107" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="4:17">
+      <c r="D109" s="4"/>
+      <c r="E109" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="4:17">
+      <c r="D110" s="7"/>
+      <c r="E110" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="10"/>
+    </row>
+    <row r="111" spans="4:17">
+      <c r="D111" s="7"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="10"/>
+    </row>
+    <row r="112" spans="4:17">
+      <c r="D112" s="7"/>
+      <c r="E112" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="10"/>
+    </row>
+    <row r="113" spans="4:17">
+      <c r="D113" s="7"/>
+      <c r="E113" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="10"/>
+    </row>
+    <row r="114" spans="4:17">
+      <c r="D114" s="7"/>
+      <c r="E114" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="10"/>
+    </row>
+    <row r="115" spans="4:17">
+      <c r="D115" s="7"/>
+      <c r="E115" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="10"/>
+    </row>
+    <row r="116" spans="4:17">
+      <c r="D116" s="7"/>
+      <c r="E116" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="10"/>
+    </row>
+    <row r="117" spans="4:17">
+      <c r="D117" s="7"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="10"/>
+    </row>
+    <row r="118" spans="4:17">
+      <c r="D118" s="7"/>
+      <c r="E118" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="10"/>
+    </row>
+    <row r="119" spans="4:17">
+      <c r="D119" s="7"/>
+      <c r="E119" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="10"/>
+    </row>
+    <row r="120" spans="4:17">
+      <c r="D120" s="7"/>
+      <c r="E120" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="10"/>
+    </row>
+    <row r="121" spans="4:17">
+      <c r="D121" s="7"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="10"/>
+    </row>
+    <row r="122" spans="4:17">
+      <c r="D122" s="7"/>
+      <c r="E122" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="10"/>
+    </row>
+    <row r="123" spans="4:17">
+      <c r="D123" s="7"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="10"/>
+    </row>
+    <row r="124" spans="4:17">
+      <c r="D124" s="7"/>
+      <c r="E124" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="10"/>
+    </row>
+    <row r="125" spans="4:17">
+      <c r="D125" s="7"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="10"/>
+    </row>
+    <row r="126" spans="4:17">
+      <c r="D126" s="7"/>
+      <c r="E126" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="10"/>
+    </row>
+    <row r="127" spans="4:17">
+      <c r="D127" s="7"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="10"/>
+    </row>
+    <row r="128" spans="4:17">
+      <c r="D128" s="7"/>
+      <c r="E128" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="10"/>
+    </row>
+    <row r="129" spans="4:17">
+      <c r="D129" s="7"/>
+      <c r="E129" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="10"/>
+    </row>
+    <row r="130" spans="4:17">
+      <c r="D130" s="7"/>
+      <c r="E130" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="10"/>
+    </row>
+    <row r="131" spans="4:17">
+      <c r="D131" s="7"/>
+      <c r="E131" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="10"/>
+    </row>
+    <row r="132" spans="4:17">
+      <c r="D132" s="7"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="10"/>
+    </row>
+    <row r="133" spans="4:17">
+      <c r="D133" s="7"/>
+      <c r="E133" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="10"/>
+    </row>
+    <row r="134" spans="4:17">
+      <c r="D134" s="7"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="10"/>
+    </row>
+    <row r="135" spans="4:17">
+      <c r="D135" s="7"/>
+      <c r="E135" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="10"/>
+    </row>
+    <row r="136" spans="4:17">
+      <c r="D136" s="7"/>
+      <c r="E136" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="10"/>
+    </row>
+    <row r="137" spans="4:17">
+      <c r="D137" s="7"/>
+      <c r="E137" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="10"/>
+    </row>
+    <row r="138" spans="4:17">
+      <c r="D138" s="7"/>
+      <c r="E138" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="10"/>
+    </row>
+    <row r="139" spans="4:17">
+      <c r="D139" s="7"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="10"/>
+    </row>
+    <row r="140" spans="4:17">
+      <c r="D140" s="7"/>
+      <c r="E140" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="10"/>
+    </row>
+    <row r="141" spans="4:17">
+      <c r="D141" s="7"/>
+      <c r="E141" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="10"/>
+    </row>
+    <row r="142" spans="4:17">
+      <c r="D142" s="7"/>
+      <c r="E142" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="10"/>
+    </row>
+    <row r="143" spans="4:17">
+      <c r="D143" s="7"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="10"/>
+    </row>
+    <row r="144" spans="4:17">
+      <c r="D144" s="7"/>
+      <c r="E144" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="10"/>
+    </row>
+    <row r="145" spans="4:17">
+      <c r="D145" s="7"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="10"/>
+    </row>
+    <row r="146" spans="4:17">
+      <c r="D146" s="7"/>
+      <c r="E146" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="10"/>
+    </row>
+    <row r="147" spans="4:17">
+      <c r="D147" s="7"/>
+      <c r="E147" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="10"/>
+    </row>
+    <row r="148" spans="4:17">
+      <c r="D148" s="17"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="20"/>
+    </row>
+    <row r="150" spans="4:17">
+      <c r="D150" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D20" location="Gradle_DSL_method_not_found_android" tooltip="Gradle DSL method not found" display="解决办法参考:Gradle DSL method not found"/>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="H19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="E42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="F43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="F44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="E46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="F47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="F48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="D51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="E52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="E53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="E54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="E55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="D57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="E58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="E59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="E61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="C4" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="D6" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="E7" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="D9" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="E10" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="E11" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="E12" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="E14" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="5:19">
+      <c r="E17" s="29"/>
+      <c r="F17" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
+    </row>
+    <row r="18" spans="5:19">
+      <c r="E18" s="29"/>
+      <c r="F18" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
+    </row>
+    <row r="19" spans="5:19">
+      <c r="E19" s="29"/>
+      <c r="F19" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+    </row>
+    <row r="20" spans="5:19">
+      <c r="E20" s="29"/>
+      <c r="F20" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
+    </row>
+    <row r="21" spans="5:19">
+      <c r="E21" s="29"/>
+      <c r="F21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="5:19">
+      <c r="E22" s="29"/>
+      <c r="F22" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+    </row>
+    <row r="23" spans="5:19">
+      <c r="E23" s="29"/>
+      <c r="F23" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+    </row>
+    <row r="24" spans="5:19">
+      <c r="E24" s="29"/>
+      <c r="F24" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32"/>
+    </row>
+    <row r="25" spans="5:19">
+      <c r="E25" s="29"/>
+      <c r="F25" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32"/>
+    </row>
+    <row r="26" spans="5:19">
+      <c r="E26" s="29"/>
+      <c r="F26" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="32"/>
+    </row>
+    <row r="27" spans="5:19">
+      <c r="E27" s="29"/>
+      <c r="F27" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="32"/>
+    </row>
+    <row r="28" spans="5:19">
+      <c r="E28" s="29"/>
+      <c r="F28" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="32"/>
+    </row>
+    <row r="29" spans="5:19">
+      <c r="E29" s="29"/>
+      <c r="F29" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
+    </row>
+    <row r="30" spans="5:19">
+      <c r="E30" s="29"/>
+      <c r="F30" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+    </row>
+    <row r="31" spans="5:19">
+      <c r="E31" s="29"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="32"/>
+    </row>
+    <row r="32" spans="5:19">
+      <c r="E32" s="29"/>
+      <c r="F32" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="32"/>
+    </row>
+    <row r="33" spans="4:19">
+      <c r="E33" s="29"/>
+      <c r="F33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="32"/>
+    </row>
+    <row r="34" spans="4:19">
+      <c r="E34" s="29"/>
+      <c r="F34" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="32"/>
+    </row>
+    <row r="35" spans="4:19">
+      <c r="E35" s="29"/>
+      <c r="F35" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="32"/>
+    </row>
+    <row r="36" spans="4:19">
+      <c r="E36" s="29"/>
+      <c r="F36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="32"/>
+    </row>
+    <row r="37" spans="4:19">
+      <c r="E37" s="29"/>
+      <c r="F37" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="32"/>
+    </row>
+    <row r="38" spans="4:19">
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="40"/>
+    </row>
+    <row r="39" spans="4:19">
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="4:19">
+      <c r="D40" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="4:19">
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="4:19">
+      <c r="E42" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="4:19">
+      <c r="E43" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="4:19">
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="28"/>
+    </row>
+    <row r="46" spans="4:19">
+      <c r="E46" s="29"/>
+      <c r="F46" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="32"/>
+    </row>
+    <row r="47" spans="4:19">
+      <c r="E47" s="29"/>
+      <c r="F47" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
+    </row>
+    <row r="48" spans="4:19">
+      <c r="E48" s="29"/>
+      <c r="F48" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="32"/>
+    </row>
+    <row r="49" spans="4:19">
+      <c r="E49" s="29"/>
+      <c r="F49" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+    </row>
+    <row r="50" spans="4:19">
+      <c r="E50" s="29"/>
+      <c r="F50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="32"/>
+    </row>
+    <row r="51" spans="4:19">
+      <c r="E51" s="29"/>
+      <c r="F51" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
+    </row>
+    <row r="52" spans="4:19">
+      <c r="E52" s="29"/>
+      <c r="F52" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="32"/>
+    </row>
+    <row r="53" spans="4:19">
+      <c r="E53" s="29"/>
+      <c r="F53" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="32"/>
+    </row>
+    <row r="54" spans="4:19">
+      <c r="E54" s="29"/>
+      <c r="F54" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="32"/>
+    </row>
+    <row r="55" spans="4:19">
+      <c r="E55" s="29"/>
+      <c r="F55" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="32"/>
+    </row>
+    <row r="56" spans="4:19">
+      <c r="E56" s="29"/>
+      <c r="F56" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="32"/>
+    </row>
+    <row r="57" spans="4:19">
+      <c r="E57" s="29"/>
+      <c r="F57" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="32"/>
+    </row>
+    <row r="58" spans="4:19">
+      <c r="E58" s="29"/>
+      <c r="F58" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="4:19">
+      <c r="E59" s="29"/>
+      <c r="F59" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="4:19">
+      <c r="E60" s="37"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="40"/>
+    </row>
+    <row r="61" spans="4:19">
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" spans="4:19">
+      <c r="E62" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="4:19">
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="4:19">
+      <c r="D64" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="E65" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="E67" s="25"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="24">
+        <v>2</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="C72" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="D73" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="D87" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="D90" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="D92" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="D94" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="D96" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Document/Android开发.xlsx
+++ b/Document/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="100" windowWidth="30440" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="12020" yWindow="0" windowWidth="25600" windowHeight="18020" tabRatio="627" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="模拟器Genymotion" sheetId="2" r:id="rId5"/>
     <sheet name="Android基础" sheetId="1" r:id="rId6"/>
     <sheet name="常见问题及解决办法" sheetId="6" r:id="rId7"/>
+    <sheet name="界面的跳转" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="328">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -902,69 +903,389 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>所以新建一个项目的时候，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入Dcloud的Hbuilder-Hello时候就报了这个错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Top-level build file where you can add configuration options common to all sub-projects/modules.</t>
+  </si>
+  <si>
+    <t>buildscript {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    repositories {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        jcenter()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dependencies {</t>
+  </si>
+  <si>
+    <t>allprojects {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        classpath </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'com.android.tools.build:gradle:2.0.0'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">buildToolsVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'23.0.3'</t>
+    </r>
+  </si>
+  <si>
+    <t>错误原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 引进项目时，自动查找本机是否有项目设置的SDK版本，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译成功,没有出现Gradle DSL method not found: 'android()' 的错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即该文件的代码变成以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入工程到Android studio的时候，如果gradle的配置不正确，会导致应用无法正常运行,如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android  SDK build tool下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于Android SDK 与 Android NDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境搭载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器Genymotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio的使用</t>
+  </si>
+  <si>
+    <t>使用领域专用语言（Domain Specific Language）来描述和处理构建逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Groovy语言为基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要面向的是Java语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它插件时可以暴露自己的DSL和API来让Gradle构建文件使用。</t>
+  </si>
+  <si>
+    <r>
+      <t>Gradle sync failed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gradle DSL method not found: 'android()'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再重新编译:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>build - rebuild project</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码中的存在中文注释可能会引起该Gradle报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若发现没有，我们会在project structure修改成自己的SDK。然而，修改后，Android Studio 会自动在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程下的build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里添加android{…} dependencies{}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这可能会跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原app项目下的build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的配置有冲突</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是报错的版本中,工程下的build.gradle文件的源代码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将工程下的build.gradle文件中的android{}和dependencies{}删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app项目下的build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件(不是工程下的build.gradle文件)加入如下代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks.withType(JavaCompile) {  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    options.encoding = "UTF-8"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">}  </t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Gradle2.0+ 之前，将JavaCompile改成Compile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入项目之后,编译项目时,在Gradle控制台报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle编译错误:编码 UTF-8 的不可映射字符的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带的模拟器启动速度慢，占用资源大，解决办法是真机调试,另外就是用一个第三方的模拟器Genymotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行app的时候，手机上除了有这个app的图标，还有图标下显示的app的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以通过 长按control -单击－go to－Declaration 进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变这个值就可以改变在设备上运行时app显示的名称了，可以是中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 project与module的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2 app的名称的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio的module 相当于 Eclipse中单独的project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Android Studio的project 相当于 Eclipse的workspace</t>
-  </si>
-  <si>
-    <t>Android Studio的module 相当于 Eclipse的project</t>
-  </si>
-  <si>
-    <t>所以新建一个项目的时候，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认有一个module叫做"app",如果需要再创建一个应用,则新建module,通过&lt;右键 - Refactor - Rename&gt;来更改名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程与模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导航条上（非Project面板上）右键模块，如下图。</t>
-  </si>
-  <si>
-    <t>在settings.gradle 删除它的引用</t>
-  </si>
-  <si>
-    <t>退出Android Studio在资源管理器中删除模块目录</t>
-  </si>
-  <si>
-    <t>案例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导入Dcloud的Hbuilder-Hello时候就报了这个错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Top-level build file where you can add configuration options common to all sub-projects/modules.</t>
-  </si>
-  <si>
-    <t>buildscript {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    repositories {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        jcenter()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    dependencies {</t>
-  </si>
-  <si>
-    <t>allprojects {</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        classpath </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 工程与模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个名称在module下的 AndroidManifest.xml  中配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name=</t>
     </r>
     <r>
       <rPr>
@@ -974,7 +1295,146 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>'com.android.tools.build:gradle:2.0.0'</t>
+      <t>"app_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;HelloWorld&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:label=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@string/app_name"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其中，@string/app_name,表示在一个叫做string.xml的文件中配置的，路劲为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>res/values/string.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 删除Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 在settings.gradle 删除它的引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 退出Android Studio在资源管理器中删除模块目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 工程/项目的目录结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Android Studio调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 断点调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 打印log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Android Studio 的控制台还是很多的，Gradle log,Event log,Run log等，那么在程序中为了调试，写的打印log，在哪里查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1 新建project,如LearnWorkspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          默认的module可以通过&lt;右键 - Refactor - Rename-Rename module&gt;来更改名称，比如叫做hellomodule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2 默认就已经有一个module叫做"app",如果需要再创建一个应用,则只需要在但前project下新建module,比如LoginModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         那么这个project中就有了两个module(hellomodule和LoginModule),每个Module就是一个可以在手机上单独运行的app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        当然也可以创建更多的module(app)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 在导航条上（非Project面板上）右键模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCreate(Bundle savedInstanceState) {</t>
     </r>
   </si>
   <si>
@@ -983,12 +1443,82 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">buildToolsVersion </t>
+      <t>.onCreate(savedInstanceState);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    setContentView(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>activity_main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">activity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:name=</t>
     </r>
     <r>
       <rPr>
@@ -998,101 +1528,996 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>'23.0.3'</t>
-    </r>
-  </si>
-  <si>
-    <t>错误原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android Studio 引进项目时，自动查找本机是否有项目设置的SDK版本，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试解决办法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译成功,没有出现Gradle DSL method not found: 'android()' 的错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即该文件的代码变成以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导入工程到Android studio的时候，如果gradle的配置不正确，会导致应用无法正常运行,如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android  SDK build tool下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于Android SDK 与 Android NDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境搭载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android Studio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟器Genymotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gradle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android Studio的使用</t>
-  </si>
-  <si>
-    <t>使用领域专用语言（Domain Specific Language）来描述和处理构建逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以Groovy语言为基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要面向的是Java语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它插件时可以暴露自己的DSL和API来让Gradle构建文件使用。</t>
-  </si>
-  <si>
-    <r>
-      <t>Gradle sync failed:</t>
+      <t>".MainActivity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>intent-filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">action </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:name=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"android.intent.action.MAIN" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">category </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:name=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"android.intent.category.LAUNCHER" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>intent-filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 界面布局文件:activity_main.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         该class配置了与所对应的加载的布局xml文件:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3 AndroidManifest.xml 这册了该activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 新建一个界面acitivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在res/layout 中右键-new- Layout Resource File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名为"acitivity_sencod"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 新建一个xml文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中main/java 右键－New- Java Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 新建对应的java class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开 AndroidManifest.xml,添加如下代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名为"SecondActivity",该类继承自android.app.Activity,并且需要重载onCreate()方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SecondActivity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Activity{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCreate(Bundle savedInstanceState){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.onCreate(savedInstanceState);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        setContentView(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>activity_second</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">activity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:name=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">".SecondActivity" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:label=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Sencod Acitity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">category </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:name=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"android.intent.category.DEFAULT" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>备注,如果2.2 只是创建Java Class,但是没有继承Activity,那么.SecondActivity 会提示 "not assignable.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则，会自动提示(输入.S,会有完整的SecondAcitity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.3 注册该activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 在主界面添加一个按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击主界面的layout文件 activity_main.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择"Button",拖到预览图中,双击预览中的这个Button,可以简单的设置按钮的id,以及按钮的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在"Design"视图中会看到很多的UI控件,和布局的预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到"Design"旁边的"Text"视图,可以看到该xml文件的代码多了个&lt;Button&gt;节点,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这部分代码就是刚刚在Design中进行可视化拖入控件和配置的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Design视图中的"Component Tree"面板中可以配置更详细的property(属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里我们需要加入一个按钮的点击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到Text视图,自动生成了布局的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"wrap_content"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"wrap_content"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:text=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"到第二个界面"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/btnToSnd"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_alignParentTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_centerHorizontal=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"105dp"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 利用可视化工具设计界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 直接在界面的xml文件中写代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视化界面的设计,最终也要是生成该xml的代码,所以熟悉的情况下,直接将这部分代码写进来就可以了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不熟悉的话，或者需要更多的配置的时候，用可视化就很方便了,毕竟手写需要对各个property都要很熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于我们配置的点击事件的方法名字为"btnToSndClicked"(见3.1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以我们在java文件中加入该方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    startActivity(intent);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">action </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:name=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"com.sokasyn.develop.learning.testintent.SecondActivity" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:onClick=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"btnToSndClicked" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的Activity都必须在AndroidManifest.xml里面配置声明.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.content.ActivityNotFoundException: No Activity found to handle Intent { act= activityName }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外,如果AndroidManifest.xml 中多个activity 配置了相同的action name，那么在跳转的时候，系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法明确到底是跳转到哪一个activity,不会报异常,而是弹出一个Dialog，让用户选择具体调转到哪一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Intent()中的参数，如果用的是activity 的action的名称,则要跟2.3配置的一致,否则，在执行startActivity(intent)时,会出异常:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于Intent 的构造,还是其它的方式,比如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Intent intent = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intent(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"com.sokasyn.develop.learning.testintent.SecondActivity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    在</t>
     </r>
     <r>
       <rPr>
@@ -1101,13 +2526,325 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>Gradle DSL method not found: 'android()'</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>再重新编译:</t>
+      <t>Android Monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中,在程序内容通过System.out.println("") 的信息就在这个控制台输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    android.util.Log常用的方法有以下5个：Log.v() Log.d() Log.i() Log.w() 以及 Log.e() 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    分别对应Android Monitor 中的VERBOSE，DEBUG，INFO，WARN，ERROR。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 静态的button绑定事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有在activity的xml中配置按钮的绑定事件，可以通过代码来添加按钮的点击监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 绑定btnForth的点击事件</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnToSndClicked(View view){</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Intent intent = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intent(MainActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,SecondActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Button btnToForth = (Button) findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnForth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>btnToForth.setOnClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OnClickListener() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF808000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Override</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onClick(View view) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"btnToForth clicked"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnClickListener :android.view.View.OnClickListener ,所以在import这个类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2 动态的button绑定事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 实现按钮的点击事件:界面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 实现界面跳转,传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    界面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    动态绑定UI控件事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源Activity代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.1 通过Intent.putExtra(),以key-value(键－值对)传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.2 通过Intent.putExtras(),用Bundle传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intent.putExtras(bundle);</t>
+  </si>
+  <si>
+    <t>startActivity(intent);</t>
+  </si>
+  <si>
+    <r>
+      <t>添加监听要在当前activity加载时执行,即在</t>
     </r>
     <r>
       <rPr>
@@ -1116,34 +2853,7 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>build - rebuild project</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码中的存在中文注释可能会引起该Gradle报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试解决办法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>若发现没有，我们会在project structure修改成自己的SDK。然而，修改后，Android Studio 会自动在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工程下的build.gradle</t>
+      <t>onCreate()</t>
     </r>
     <r>
       <rPr>
@@ -1152,125 +2862,529 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>里添加android{…} dependencies{}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这可能会跟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原app项目下的build.gradle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的配置有冲突</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下是报错的版本中,工程下的build.gradle文件的源代码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将工程下的build.gradle文件中的android{}和dependencies{}删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>app项目下的build.gradle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件(不是工程下的build.gradle文件)加入如下代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">tasks.withType(JavaCompile) {  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    options.encoding = "UTF-8"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">}  </t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Gradle2.0+ 之前，将JavaCompile改成Compile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导入项目之后,编译项目时,在Gradle控制台报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gradle编译错误:编码 UTF-8 的不可映射字符的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自带的模拟器启动速度慢，占用资源大，解决办法是真机调试,另外就是用一个第三方的模拟器Genymotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程/项目的目录结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android Studio调试打印log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android Studio 的控制台还是很多的，Gradle log,Event log,Run log等，那么在程序中为了调试，写的打印log，在哪里查看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 Android Monitor中，由于该</t>
+      <t>中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intent intent = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intent(MainActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,ThirdActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bundle bundle = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bundle();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bundle.putString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Samson"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bundle.putString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1234"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// 用Budle包装数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的Activity接收数据,在onCreate()方法中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 如果源activity是用Bundle携带数据的,则用Bundle来接收数据</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bundle bundle = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.getIntent().getExtras();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String userName = bundle.getString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String password = bundle.getString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"userName:" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, userName);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"password:" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, password);</t>
+    </r>
+  </si>
+  <si>
+    <t>该种方式,也是采用key-value的方式组织数据的,只不过用Bundle包装了一层,接收方需要在Bundle中获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 直接将该值配置到Intent中</t>
+  </si>
+  <si>
+    <t>// 获取源界面传入的参数值</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 第一个参数为当前Activity类对象，第二个参数为你要打开的Activity类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intent intent = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intent(MainActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, ForthActivity.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>intent.putExtra(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"userName" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"Jacky");</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String inputParam = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.getIntent().getStringExtra(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    新建界面及配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认有一个主界面,包含的相关source有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2  java class文件:MainActivity.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    界面跳转传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    事件的实现过程,在相应的主界面的java class ：MainActivity.java 中完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +3392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1373,6 +3487,81 @@
       <i/>
       <sz val="16"/>
       <color rgb="FF808080"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000080"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF808000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
@@ -1480,7 +3669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1516,8 +3705,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1596,8 +3838,57 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="88">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1632,6 +3923,59 @@
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2370,6 +4714,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3187700" y="4102100"/>
+          <a:ext cx="2857500" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -2447,7 +4834,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2517,6 +4904,49 @@
         <a:xfrm>
           <a:off x="2476500" y="15328900"/>
           <a:ext cx="14300200" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="17272000"/>
+          <a:ext cx="13665200" cy="8788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -2864,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2872,22 +5302,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="41" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="23" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -2895,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -2903,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +5373,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2958,7 +5388,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="23" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3040,7 +5470,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="3:4">
@@ -3048,7 +5478,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="3:4">
@@ -3116,117 +5546,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="D4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="D5" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="D14" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="3">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="E46" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="E47" s="44"/>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="D48" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="D49" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="E51" s="42" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="C27" s="3" t="s">
+    <row r="52" spans="3:6">
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="D53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="3" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="D57" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="D58" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="D59" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="D70" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="D71" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="D73" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="D75" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="D77" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3236,6 +5733,7 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3257,7 +5755,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3272,27 +5770,27 @@
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -4071,12 +6569,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4106,17 +6604,17 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4149,7 +6647,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4482,7 +6980,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="23" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4495,42 +6993,42 @@
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="D6" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="E7" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="D9" s="24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="E10" s="24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="E11" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="E12" s="24" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="E14" s="24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4553,7 +7051,7 @@
     <row r="17" spans="5:19">
       <c r="E17" s="29"/>
       <c r="F17" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -4572,7 +7070,7 @@
     <row r="18" spans="5:19">
       <c r="E18" s="29"/>
       <c r="F18" s="33" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -4591,7 +7089,7 @@
     <row r="19" spans="5:19">
       <c r="E19" s="29"/>
       <c r="F19" s="33" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -4610,7 +7108,7 @@
     <row r="20" spans="5:19">
       <c r="E20" s="29"/>
       <c r="F20" s="33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -4648,7 +7146,7 @@
     <row r="22" spans="5:19">
       <c r="E22" s="29"/>
       <c r="F22" s="33" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
@@ -4667,7 +7165,7 @@
     <row r="23" spans="5:19">
       <c r="E23" s="29"/>
       <c r="F23" s="33" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
@@ -4724,7 +7222,7 @@
     <row r="26" spans="5:19">
       <c r="E26" s="29"/>
       <c r="F26" s="33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -4743,7 +7241,7 @@
     <row r="27" spans="5:19">
       <c r="E27" s="29"/>
       <c r="F27" s="33" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
@@ -4762,7 +7260,7 @@
     <row r="28" spans="5:19">
       <c r="E28" s="29"/>
       <c r="F28" s="33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
@@ -4874,7 +7372,7 @@
     <row r="34" spans="4:19">
       <c r="E34" s="29"/>
       <c r="F34" s="36" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
@@ -4969,7 +7467,7 @@
     </row>
     <row r="40" spans="4:19">
       <c r="D40" s="24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E40" s="25"/>
     </row>
@@ -4978,12 +7476,12 @@
     </row>
     <row r="42" spans="4:19">
       <c r="E42" s="25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="4:19">
       <c r="E43" s="25" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="4:19">
@@ -5006,7 +7504,7 @@
     <row r="46" spans="4:19">
       <c r="E46" s="29"/>
       <c r="F46" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="31"/>
@@ -5025,7 +7523,7 @@
     <row r="47" spans="4:19">
       <c r="E47" s="29"/>
       <c r="F47" s="33" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -5044,7 +7542,7 @@
     <row r="48" spans="4:19">
       <c r="E48" s="29"/>
       <c r="F48" s="33" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G48" s="31"/>
       <c r="H48" s="31"/>
@@ -5063,7 +7561,7 @@
     <row r="49" spans="4:19">
       <c r="E49" s="29"/>
       <c r="F49" s="33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="31"/>
@@ -5101,7 +7599,7 @@
     <row r="51" spans="4:19">
       <c r="E51" s="29"/>
       <c r="F51" s="33" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
@@ -5120,7 +7618,7 @@
     <row r="52" spans="4:19">
       <c r="E52" s="29"/>
       <c r="F52" s="33" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
@@ -5177,7 +7675,7 @@
     <row r="55" spans="4:19">
       <c r="E55" s="29"/>
       <c r="F55" s="33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G55" s="31"/>
       <c r="H55" s="31"/>
@@ -5196,7 +7694,7 @@
     <row r="56" spans="4:19">
       <c r="E56" s="29"/>
       <c r="F56" s="33" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G56" s="31"/>
       <c r="H56" s="31"/>
@@ -5215,7 +7713,7 @@
     <row r="57" spans="4:19">
       <c r="E57" s="29"/>
       <c r="F57" s="33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G57" s="31"/>
       <c r="H57" s="31"/>
@@ -5291,7 +7789,7 @@
     </row>
     <row r="62" spans="4:19">
       <c r="E62" s="25" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="4:19">
@@ -5299,13 +7797,13 @@
     </row>
     <row r="64" spans="4:19">
       <c r="D64" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5">
       <c r="E65" s="25" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -5319,62 +7817,62 @@
         <v>2</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="C72" s="24" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="D73" s="24" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="D87" s="24" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="C89" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="D90" s="24" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="D92" s="24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="D93" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="D94" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="D96" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" s="24" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5391,4 +7889,898 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L246"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="19">
+      <c r="I2" s="60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" s="54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="D26" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="D29" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="D35" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="D36" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="D39" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="D40" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="D47" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="D51" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="D52" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="E54" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="E55" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="E56" s="42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="E57" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="E58" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="E59" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="D63" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="D65" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="E67" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="E68" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="E69" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="E71" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="E72" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="E73" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="D75" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="D76" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="D83" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="D84" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="D86" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="D89" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="D91" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="D92" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="E138" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="E139" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="E140" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="E141" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="E142" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="E143" s="48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="E144" s="48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5">
+      <c r="E145" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5">
+      <c r="E146" s="48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5">
+      <c r="C149" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5">
+      <c r="D151" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5">
+      <c r="D153" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5">
+      <c r="C157" s="55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5">
+      <c r="C159" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5">
+      <c r="C161" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5">
+      <c r="D163" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5">
+      <c r="D164" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5">
+      <c r="E166" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5">
+      <c r="E167" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5">
+      <c r="E168" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5">
+      <c r="E169" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5">
+      <c r="D171" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5">
+      <c r="D172" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5">
+      <c r="D173" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5">
+      <c r="D175" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="E177" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="E178" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5">
+      <c r="E179" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="E180" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5">
+      <c r="E181" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5">
+      <c r="D183" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5">
+      <c r="D184" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="D189" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="D191" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4">
+      <c r="D193" s="50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4">
+      <c r="D194" s="51" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4">
+      <c r="D195" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4">
+      <c r="D196" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4">
+      <c r="D197" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4">
+      <c r="D198" s="51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4">
+      <c r="D199" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4">
+      <c r="D200" s="51" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4">
+      <c r="D202" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4">
+      <c r="D203" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4">
+      <c r="C206" s="55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4">
+      <c r="C208" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="211" spans="3:12">
+      <c r="D211" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="212" spans="3:12">
+      <c r="D212" s="4"/>
+      <c r="E212" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="3:12">
+      <c r="D213" s="7"/>
+      <c r="E213" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="10"/>
+    </row>
+    <row r="214" spans="3:12">
+      <c r="D214" s="7"/>
+      <c r="E214" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="10"/>
+    </row>
+    <row r="215" spans="3:12">
+      <c r="D215" s="7"/>
+      <c r="E215" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="10"/>
+    </row>
+    <row r="216" spans="3:12">
+      <c r="D216" s="17"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="19"/>
+      <c r="K216" s="19"/>
+      <c r="L216" s="20"/>
+    </row>
+    <row r="219" spans="3:12">
+      <c r="D219" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="220" spans="3:12">
+      <c r="D220" s="4"/>
+      <c r="E220" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="3:12">
+      <c r="D221" s="7"/>
+      <c r="E221" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
+      <c r="L221" s="10"/>
+    </row>
+    <row r="222" spans="3:12">
+      <c r="D222" s="17"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="19"/>
+      <c r="K222" s="19"/>
+      <c r="L222" s="20"/>
+    </row>
+    <row r="223" spans="3:12">
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
+      <c r="L223" s="9"/>
+    </row>
+    <row r="224" spans="3:12">
+      <c r="C224" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="226" spans="4:12">
+      <c r="D226" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="228" spans="4:12">
+      <c r="D228" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="229" spans="4:12">
+      <c r="D229" s="4"/>
+      <c r="E229" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="4:12">
+      <c r="D230" s="7"/>
+      <c r="E230" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="9"/>
+      <c r="L230" s="10"/>
+    </row>
+    <row r="231" spans="4:12">
+      <c r="D231" s="7"/>
+      <c r="E231" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="9"/>
+      <c r="L231" s="10"/>
+    </row>
+    <row r="232" spans="4:12">
+      <c r="D232" s="7"/>
+      <c r="E232" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="9"/>
+      <c r="L232" s="10"/>
+    </row>
+    <row r="233" spans="4:12">
+      <c r="D233" s="7"/>
+      <c r="E233" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
+      <c r="L233" s="10"/>
+    </row>
+    <row r="234" spans="4:12">
+      <c r="D234" s="7"/>
+      <c r="E234" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="9"/>
+      <c r="L234" s="10"/>
+    </row>
+    <row r="235" spans="4:12">
+      <c r="D235" s="7"/>
+      <c r="E235" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="9"/>
+      <c r="L235" s="10"/>
+    </row>
+    <row r="236" spans="4:12">
+      <c r="D236" s="17"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="19"/>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" s="19"/>
+      <c r="K236" s="19"/>
+      <c r="L236" s="20"/>
+    </row>
+    <row r="238" spans="4:12">
+      <c r="D238" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="4:12">
+      <c r="D239" s="4"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="4:12">
+      <c r="D240" s="7"/>
+      <c r="E240" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
+      <c r="L240" s="10"/>
+    </row>
+    <row r="241" spans="4:12">
+      <c r="D241" s="7"/>
+      <c r="E241" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="9"/>
+      <c r="L241" s="10"/>
+    </row>
+    <row r="242" spans="4:12">
+      <c r="D242" s="7"/>
+      <c r="E242" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+      <c r="L242" s="10"/>
+    </row>
+    <row r="243" spans="4:12">
+      <c r="D243" s="7"/>
+      <c r="E243" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
+      <c r="L243" s="10"/>
+    </row>
+    <row r="244" spans="4:12">
+      <c r="D244" s="7"/>
+      <c r="E244" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
+      <c r="L244" s="10"/>
+    </row>
+    <row r="245" spans="4:12">
+      <c r="D245" s="7"/>
+      <c r="E245" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="9"/>
+      <c r="L245" s="10"/>
+    </row>
+    <row r="246" spans="4:12">
+      <c r="D246" s="17"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="19"/>
+      <c r="K246" s="19"/>
+      <c r="L246" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Document/Android开发.xlsx
+++ b/Document/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="0" windowWidth="25600" windowHeight="18020" tabRatio="627" activeTab="7"/>
+    <workbookView xWindow="3320" yWindow="0" windowWidth="25600" windowHeight="18020" tabRatio="627" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="Android基础" sheetId="1" r:id="rId6"/>
     <sheet name="常见问题及解决办法" sheetId="6" r:id="rId7"/>
     <sheet name="界面的跳转" sheetId="8" r:id="rId8"/>
+    <sheet name="多线程" sheetId="9" r:id="rId9"/>
+    <sheet name="常见问题" sheetId="10" r:id="rId10"/>
+    <sheet name="AsyncTask代码示例" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="533">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2333,14 +2336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于我们配置的点击事件的方法名字为"btnToSndClicked"(见3.1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以我们在java文件中加入该方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    startActivity(intent);</t>
   </si>
   <si>
@@ -2448,30 +2443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.content.ActivityNotFoundException: No Activity found to handle Intent { act= activityName }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外,如果AndroidManifest.xml 中多个activity 配置了相同的action name，那么在跳转的时候，系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法明确到底是跳转到哪一个activity,不会报异常,而是弹出一个Dialog，让用户选择具体调转到哪一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new Intent()中的参数，如果用的是activity 的action的名称,则要跟2.3配置的一致,否则，在执行startActivity(intent)时,会出异常:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于Intent 的构造,还是其它的方式,比如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">    Intent intent = </t>
     </r>
@@ -2829,14 +2800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    5.1 通过Intent.putExtra(),以key-value(键－值对)传值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.2 通过Intent.putExtras(),用Bundle传值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intent.putExtras(bundle);</t>
   </si>
   <si>
@@ -3386,13 +3349,4514 @@
   <si>
     <t xml:space="preserve">    事件的实现过程,在相应的主界面的java class ：MainActivity.java 中完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    5.2 通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intent.putExtras()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bundle传值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    5.1 通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intent.putExtra()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key-value(键－值对)传值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Main Thread:Ui线程,负责最UI处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Worker Thread:子线程,用户处理UI事务之外的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio Button上的显示的标题text都是大写的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法:配置textAllCaps 属性值为false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"wrap_content"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"wrap_content"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:text=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"DownLoad"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/button"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/textView"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_centerHorizontal=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"71dp"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    android:textAllCaps="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnToSndClicked(View view){</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1 方法的参数View view不能省略,否则点击的时候直接就报Could not find a method btnToSndClicked(View) in the activity class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        由于我们配置的点击事件的方法名字为"btnToSndClicked"(见3.1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        所以我们在java文件中加入该方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       备注:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2 new Intent()中的参数，如果用的是activity 的action的名称,则要跟2.3配置的一致,否则，在执行startActivity(intent)时,会出异常:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          android.content.ActivityNotFoundException: No Activity found to handle Intent { act= activityName }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3 关于Intent 的构造,还是其它的方式,比如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4 如果AndroidManifest.xml 中多个activity 配置了相同的action name，那么在跳转的时候，系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         无法明确到底是跳转到哪一个activity,不会报异常,而是弹出一个Dialog，让用户选择具体调转到哪一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android中线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onPreExecute是在主线程中执行的,所以可以在这个方法内做一些初始化,比如弹框等UI操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以这个过程中是不允许直接操作UI的,但是往往我们在这个过程中需要更新UI界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如更新进度,或者某一个UI元素的值.这个时候得通过 publishProgress()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 创建AsyncTask的子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">protected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String doInBackground(String... params)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2 onPreExecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.3.1 publishProgress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数以String 类型为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3 doInBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该方法可以在子线程中,触发onProgressUpdate()方法,以更新UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Worker Thread不能更新UI,当在后台执行的任务完成,需要更新UI,就需要通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程的通信机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通知UI线程,UI线程进而执行UI操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publishProgress(result);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就解决了后台任务的子线程与主线程之间的通信问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4 onPostExecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.3.2 onProgressUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onProgressUpdate(String... result)</t>
+    </r>
+  </si>
+  <si>
+    <t>由于result是个数组,所以通过result[0]即可获取publishProgress(result)传入的result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以通过该方法可以更新相关UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onPostExecute(String result)</t>
+    </r>
+  </si>
+  <si>
+    <t>当DownloadTask的实例对象执行方法 execute()时,该方法触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当doInBackground执行完成之后,该方法自动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该方法在主线程中执行,所以该方法也可以将任务的最终情况更新与UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本Demo模拟下载任务,在子线程得到下载任务的进度,将该进度更新到UI界面上的TextView上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中一个参照事件,是主界面上有个按钮，点击可以暂停该任务,验证主线程与子线程之间的通信问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java实现类 AsyncTaskActivity.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Created by Samson on 16/5/24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        configBtnClickListener();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 这个测试类,模拟了下载的过程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        * 后台任务执行之前,该方法是在UI线程中执行的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        * 所以可以在后台任务执行之前做一些相关的处理,尤其是UI的,比如弹出框框等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 后台任务处理,该过程是在后台(子线程)中执行的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 所以方法内部是不允许存在对UI的操作的,如果确实需要在任务处理过程中更新UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 那么可以通过publishProgress(result)将结果发布出去,在重载的onProgressUpdate()进行UI操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                publishProgress(result);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 子线程在执行doInBackground的过程中,通过publishProgress(result)触发该方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 该方法在UI线程执行,所以能更新UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 即doInBackground（）执行完毕就会回到UI线程执行该方法</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml version=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"1.0" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encoding=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"utf-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RelativeLayout </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xmlns:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"http://schemas.android.com/apk/res/android"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"match_parent" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"match_parent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextView</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_width=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"wrap_content"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_height=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"wrap_content"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:textAppearance=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"?android:attr/textAppearanceMedium"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:text=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"AsyncTask 测试"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/textView"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"48dp"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_alignParentTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_centerHorizontal=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"true" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:text=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Task State"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idTxtTaskState"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"45dp"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/textView"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:text=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"DownLoad"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idBtnDownload"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:textAllCaps=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"31dp"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idTxtTaskState"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_alignLeft=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idTxtTaskState"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_alignStart=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/idTxtTaskState" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:text=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Pause"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idBtnPause"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_marginTop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"106dp"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:onClick=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"btnPauseClicked"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_below=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idBtnDownload"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_alignRight=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"@+id/idBtnDownload"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:layout_alignEnd=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"@+id/idBtnDownload" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RelativeLayout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">package </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>com.sokasyn.develop.learning.TestMultiTasks;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.app.Activity;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.os.AsyncTask;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.os.Bundle;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.util.Log;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.view.View;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.view.View.OnClickListener;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.widget.Button;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.widget.TextView;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AsyncTaskActivity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Activity{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DownloadTask </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TextView </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtTaskState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOWNLOAD_URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"local test"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCreate(Bundle savedInstanceState){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.onCreate(savedInstanceState);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        setContentView(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>activity_asyntask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">txtTaskState </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= (TextView)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idTxtTaskState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 配置按钮点击事件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>configBtnClickListener(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Button btnDown = (Button)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnDownload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        btnDown.setOnClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OnClickListener() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Override</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onClick(View view) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">downloadTask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DownloadTask();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.execute(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DOWNLOAD_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnPauseClicked(View view){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/* 异步下载图片任务类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DownloadTask </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AsyncTask&lt;String ,String, String&gt;{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Override</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onPreExecute(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.onPreExecute();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtTaskState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String doInBackground(String... params){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            String result = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"0%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;&amp; (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= downLoading(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                result = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>result;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onProgressUpdate(String... result){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.onProgressUpdate(result);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtTaskState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(result[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onPostExecute(String result){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.onPostExecute(result);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtTaskState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(result);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Integer downLoading(Integer preProgress){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            sleepForSeconds(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            progress = (progress &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) ? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: progress;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 通过让线程睡眠来模拟任务要消耗的时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleepForSeconds(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seconds){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(seconds * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(InterruptedException e){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sleep"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"interrupted"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 模拟下载过程,没隔1秒钟,返回1个DOWNLOAD_SIZE的进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Integer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 对外公布的该任务的进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 可以控制任务的停止</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Integer progress = preProgress + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DOWNLOAD_SIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>界面activity_asyntask.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo_多线程之AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class DownloadTask extends AsyncTask&lt;String ,String, String&gt;{ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String result = "80%";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    轻量级的异步处理类,该类是抽象的,需要继承该类，来实现异步操作.适用于简单的异步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            AsyncTask &lt;Params,Progress,Result&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Params: 这个泛型指定的是我们传递给异步任务执行时的参数的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Progress: 这个泛型指定的是我们的异步任务在执行的时候将执行的进度返回给UI线程的参数的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Result: 这个泛型指定的异步任务执行完后返回给UI线程的结果的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            如:AsyncTask &lt;Void, Void, Void&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现方式主要有两种AsyncTask和Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Demo代码示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncTask代码示例</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            定义的继承自AsyncTask的类,需要指定这三个泛型的类型,不指定的话用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代替</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onPreExecute 方法执行完成后,这个方法就开始执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并且是在子线程中执行的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该方法在主线程中执行的,是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由publishProgress方法自动触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.5 onCancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCancelled(String result)</t>
+    </r>
+  </si>
+  <si>
+    <t>当在外部,调用AsyncTask对象的cancel(true) 方法后，任务并不是立即停止的,在测试中显示任务还是会像正常那么继续执行,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是不会再调用onProgressUpdate()方法更新UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如做的测试Demo中,任务还是要执行下载到100才会结束,只是TextView上不会更新值了.任务结束后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用了onCancelled()方法,而不再是正常结束是调用的onPostExecute()方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该方法也是在主线程执行的,所以,也可以做一些UI操作，比如告知任务状态等.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        /* 暂停任务,AsyncTask只能执行一次,我们可以通过api,onCancelled()来取消该任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 但是onCancelled()之后,onPostExecute是不执行的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 取消任务时候执行,不会执行onPostExecute()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 备注:AsyncTask的caceled()方法并不会终止任务,测试中任务还是在执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 只是没有像正常情况下执行onProgressUpdate()更新UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 任务结束后会执行onCancelled()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         * 后台任务正常结束之后就会执行</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">downloadTask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.pause();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnCancelClicked(View view){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"btnCancelClicked"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.cancel(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Integer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOWNLOAD_SIZE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 每秒钟下载增量,达到100任务结束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pause(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"updating......."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCancelled(String result){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"onCaceled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtTaskState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Canceled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Done"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"dowloading...."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3565,6 +8029,100 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000080"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF808080"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF808000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3669,7 +8227,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3758,8 +8316,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3887,8 +8459,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="34" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="102">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3976,6 +8602,20 @@
     <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5356,6 +9996,3364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="64" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M223"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="19">
+      <c r="G3" s="60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="17">
+      <c r="B14" s="53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="70"/>
+      <c r="C18" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="70"/>
+      <c r="C19" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="70"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="70"/>
+      <c r="C21" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="70"/>
+      <c r="C22" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="70"/>
+      <c r="C23" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="70"/>
+      <c r="C24" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="70"/>
+      <c r="C25" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="70"/>
+      <c r="C26" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="70"/>
+      <c r="C27" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="70"/>
+      <c r="C28" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="70"/>
+      <c r="C29" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="73"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="70"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="70"/>
+      <c r="C31" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="70"/>
+      <c r="C32" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="73"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="70"/>
+      <c r="C33" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="70"/>
+      <c r="C34" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="70"/>
+      <c r="C35" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="70"/>
+      <c r="C36" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="73"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="70"/>
+      <c r="C37" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="70"/>
+      <c r="C38" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="70"/>
+      <c r="C39" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="70"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="73"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="70"/>
+      <c r="C41" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="73"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="70"/>
+      <c r="C42" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="73"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="70"/>
+      <c r="C43" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="73"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="70"/>
+      <c r="C44" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="73"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="70"/>
+      <c r="C45" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="73"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="70"/>
+      <c r="C46" s="75" t="s">
+        <v>410</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="73"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="70"/>
+      <c r="C47" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="73"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="70"/>
+      <c r="C48" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="73"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="70"/>
+      <c r="C49" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="73"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="70"/>
+      <c r="C50" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="73"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="70"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="73"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="70"/>
+      <c r="C52" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="73"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="70"/>
+      <c r="C53" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="73"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="70"/>
+      <c r="C54" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="73"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="70"/>
+      <c r="C55" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="73"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="70"/>
+      <c r="C56" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="73"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="70"/>
+      <c r="C57" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="73"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="70"/>
+      <c r="C58" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="73"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="70"/>
+      <c r="C59" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="73"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="70"/>
+      <c r="C60" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="73"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="70"/>
+      <c r="C61" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="73"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="70"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="73"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="70"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="73"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="70"/>
+      <c r="C64" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="73"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="70"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="73"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="78"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="80"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+    </row>
+    <row r="68" spans="2:13" ht="17">
+      <c r="B68" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="67"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
+      <c r="M70" s="69"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="70"/>
+      <c r="C71" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="73"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="70"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="73"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="70"/>
+      <c r="C73" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="73"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="70"/>
+      <c r="C74" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="73"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="70"/>
+      <c r="C75" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="73"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="70"/>
+      <c r="C76" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="73"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="70"/>
+      <c r="C77" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="73"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="70"/>
+      <c r="C78" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="73"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="70"/>
+      <c r="C79" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="73"/>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="70"/>
+      <c r="C80" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
+      <c r="L80" s="72"/>
+      <c r="M80" s="73"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="70"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="73"/>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="70"/>
+      <c r="C82" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="73"/>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="70"/>
+      <c r="C83" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="73"/>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="70"/>
+      <c r="C84" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="73"/>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="70"/>
+      <c r="C85" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="73"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="70"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="73"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="70"/>
+      <c r="C87" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="73"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="70"/>
+      <c r="C88" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="73"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="70"/>
+      <c r="C89" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="73"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="70"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="73"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="70"/>
+      <c r="C91" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="73"/>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="70"/>
+      <c r="C92" s="74" t="s">
+        <v>437</v>
+      </c>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="73"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="70"/>
+      <c r="C93" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="73"/>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="70"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="72"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="73"/>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="70"/>
+      <c r="C95" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="73"/>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="70"/>
+      <c r="C96" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="73"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="70"/>
+      <c r="C97" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="73"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="70"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="73"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="70"/>
+      <c r="C99" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="73"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="70"/>
+      <c r="C100" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="72"/>
+      <c r="M100" s="73"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="70"/>
+      <c r="C101" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="73"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="70"/>
+      <c r="C102" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="73"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="70"/>
+      <c r="C103" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="73"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="70"/>
+      <c r="C104" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="73"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="70"/>
+      <c r="C105" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="70"/>
+      <c r="C106" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="73"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="70"/>
+      <c r="C107" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="73"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="70"/>
+      <c r="C108" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="72"/>
+      <c r="M108" s="73"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="70"/>
+      <c r="C109" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
+      <c r="L109" s="72"/>
+      <c r="M109" s="73"/>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="70"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="72"/>
+      <c r="L110" s="72"/>
+      <c r="M110" s="73"/>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" s="70"/>
+      <c r="C111" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="73"/>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" s="70"/>
+      <c r="C112" s="74" t="s">
+        <v>519</v>
+      </c>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+      <c r="K112" s="72"/>
+      <c r="L112" s="72"/>
+      <c r="M112" s="73"/>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" s="70"/>
+      <c r="C113" s="74" t="s">
+        <v>520</v>
+      </c>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="73"/>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="B114" s="70"/>
+      <c r="C114" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="72"/>
+      <c r="K114" s="72"/>
+      <c r="L114" s="72"/>
+      <c r="M114" s="73"/>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="B115" s="70"/>
+      <c r="C115" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="73"/>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="B116" s="70"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="72"/>
+      <c r="M116" s="73"/>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117" s="70"/>
+      <c r="C117" s="74" t="s">
+        <v>521</v>
+      </c>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="72"/>
+      <c r="M117" s="73"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" s="70"/>
+      <c r="C118" s="74" t="s">
+        <v>519</v>
+      </c>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="72"/>
+      <c r="M118" s="73"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="70"/>
+      <c r="C119" s="74" t="s">
+        <v>522</v>
+      </c>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="72"/>
+      <c r="M119" s="73"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="70"/>
+      <c r="C120" s="74" t="s">
+        <v>523</v>
+      </c>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="73"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" s="70"/>
+      <c r="C121" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
+      <c r="K121" s="72"/>
+      <c r="L121" s="72"/>
+      <c r="M121" s="73"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" s="70"/>
+      <c r="C122" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="72"/>
+      <c r="L122" s="72"/>
+      <c r="M122" s="73"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" s="70"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="72"/>
+      <c r="M123" s="73"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="70"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="73"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="70"/>
+      <c r="C125" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="72"/>
+      <c r="M125" s="73"/>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" s="70"/>
+      <c r="C126" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="72"/>
+      <c r="L126" s="72"/>
+      <c r="M126" s="73"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="70"/>
+      <c r="C127" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="73"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" s="70"/>
+      <c r="C128" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="72"/>
+      <c r="M128" s="73"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129" s="70"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="72"/>
+      <c r="M129" s="73"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130" s="70"/>
+      <c r="C130" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="72"/>
+      <c r="M130" s="73"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131" s="70"/>
+      <c r="C131" s="84" t="s">
+        <v>483</v>
+      </c>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="72"/>
+      <c r="M131" s="73"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="70"/>
+      <c r="C132" s="84" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="72"/>
+      <c r="M132" s="73"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" s="70"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="72"/>
+      <c r="M133" s="73"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="70"/>
+      <c r="C134" s="84" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="72"/>
+      <c r="M134" s="73"/>
+    </row>
+    <row r="135" spans="2:13">
+      <c r="B135" s="70"/>
+      <c r="C135" s="84" t="s">
+        <v>513</v>
+      </c>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="72"/>
+      <c r="L135" s="72"/>
+      <c r="M135" s="73"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136" s="70"/>
+      <c r="C136" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="73"/>
+    </row>
+    <row r="137" spans="2:13">
+      <c r="B137" s="70"/>
+      <c r="C137" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="72"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="73"/>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="70"/>
+      <c r="C138" s="74" t="s">
+        <v>526</v>
+      </c>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="73"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="70"/>
+      <c r="C139" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="73"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="70"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="73"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="70"/>
+      <c r="C141" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="73"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="70"/>
+      <c r="C142" s="84" t="s">
+        <v>379</v>
+      </c>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="73"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="70"/>
+      <c r="C143" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="72"/>
+      <c r="M143" s="73"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="70"/>
+      <c r="C144" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="73"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="70"/>
+      <c r="C145" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="73"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="70"/>
+      <c r="C146" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="73"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="70"/>
+      <c r="C147" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="73"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="70"/>
+      <c r="C148" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="73"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="70"/>
+      <c r="C149" s="74" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" s="72"/>
+      <c r="E149" s="72"/>
+      <c r="F149" s="72"/>
+      <c r="G149" s="72"/>
+      <c r="H149" s="72"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="72"/>
+      <c r="K149" s="72"/>
+      <c r="L149" s="72"/>
+      <c r="M149" s="73"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="70"/>
+      <c r="C150" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="D150" s="72"/>
+      <c r="E150" s="72"/>
+      <c r="F150" s="72"/>
+      <c r="G150" s="72"/>
+      <c r="H150" s="72"/>
+      <c r="I150" s="72"/>
+      <c r="J150" s="72"/>
+      <c r="K150" s="72"/>
+      <c r="L150" s="72"/>
+      <c r="M150" s="73"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="70"/>
+      <c r="C151" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="72"/>
+      <c r="H151" s="72"/>
+      <c r="I151" s="72"/>
+      <c r="J151" s="72"/>
+      <c r="K151" s="72"/>
+      <c r="L151" s="72"/>
+      <c r="M151" s="73"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="70"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="72"/>
+      <c r="H152" s="72"/>
+      <c r="I152" s="72"/>
+      <c r="J152" s="72"/>
+      <c r="K152" s="72"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="73"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="70"/>
+      <c r="C153" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
+      <c r="K153" s="72"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="73"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="70"/>
+      <c r="C154" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
+      <c r="J154" s="72"/>
+      <c r="K154" s="72"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="73"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="70"/>
+      <c r="C155" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="D155" s="72"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="72"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="72"/>
+      <c r="K155" s="72"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="73"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="70"/>
+      <c r="C156" s="84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D156" s="72"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="72"/>
+      <c r="G156" s="72"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="72"/>
+      <c r="J156" s="72"/>
+      <c r="K156" s="72"/>
+      <c r="L156" s="72"/>
+      <c r="M156" s="73"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="70"/>
+      <c r="C157" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
+      <c r="K157" s="72"/>
+      <c r="L157" s="72"/>
+      <c r="M157" s="73"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="70"/>
+      <c r="C158" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="72"/>
+      <c r="H158" s="72"/>
+      <c r="I158" s="72"/>
+      <c r="J158" s="72"/>
+      <c r="K158" s="72"/>
+      <c r="L158" s="72"/>
+      <c r="M158" s="73"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="70"/>
+      <c r="C159" s="85" t="s">
+        <v>459</v>
+      </c>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
+      <c r="K159" s="72"/>
+      <c r="L159" s="72"/>
+      <c r="M159" s="73"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="70"/>
+      <c r="C160" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
+      <c r="K160" s="72"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="73"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="70"/>
+      <c r="C161" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D161" s="72"/>
+      <c r="E161" s="72"/>
+      <c r="F161" s="72"/>
+      <c r="G161" s="72"/>
+      <c r="H161" s="72"/>
+      <c r="I161" s="72"/>
+      <c r="J161" s="72"/>
+      <c r="K161" s="72"/>
+      <c r="L161" s="72"/>
+      <c r="M161" s="73"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="70"/>
+      <c r="C162" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="73"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="70"/>
+      <c r="C163" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="D163" s="72"/>
+      <c r="E163" s="72"/>
+      <c r="F163" s="72"/>
+      <c r="G163" s="72"/>
+      <c r="H163" s="72"/>
+      <c r="I163" s="72"/>
+      <c r="J163" s="72"/>
+      <c r="K163" s="72"/>
+      <c r="L163" s="72"/>
+      <c r="M163" s="73"/>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="70"/>
+      <c r="C164" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D164" s="72"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="72"/>
+      <c r="H164" s="72"/>
+      <c r="I164" s="72"/>
+      <c r="J164" s="72"/>
+      <c r="K164" s="72"/>
+      <c r="L164" s="72"/>
+      <c r="M164" s="73"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="70"/>
+      <c r="C165" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="D165" s="72"/>
+      <c r="E165" s="72"/>
+      <c r="F165" s="72"/>
+      <c r="G165" s="72"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="72"/>
+      <c r="K165" s="72"/>
+      <c r="L165" s="72"/>
+      <c r="M165" s="73"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="70"/>
+      <c r="C166" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="D166" s="72"/>
+      <c r="E166" s="72"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="72"/>
+      <c r="H166" s="72"/>
+      <c r="I166" s="72"/>
+      <c r="J166" s="72"/>
+      <c r="K166" s="72"/>
+      <c r="L166" s="72"/>
+      <c r="M166" s="73"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="70"/>
+      <c r="C167" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D167" s="72"/>
+      <c r="E167" s="72"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="72"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="72"/>
+      <c r="K167" s="72"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="73"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="70"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="72"/>
+      <c r="E168" s="72"/>
+      <c r="F168" s="72"/>
+      <c r="G168" s="72"/>
+      <c r="H168" s="72"/>
+      <c r="I168" s="72"/>
+      <c r="J168" s="72"/>
+      <c r="K168" s="72"/>
+      <c r="L168" s="72"/>
+      <c r="M168" s="73"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169" s="70"/>
+      <c r="C169" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="72"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="73"/>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="70"/>
+      <c r="C170" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="72"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="72"/>
+      <c r="K170" s="72"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="73"/>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171" s="70"/>
+      <c r="C171" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D171" s="72"/>
+      <c r="E171" s="72"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="72"/>
+      <c r="H171" s="72"/>
+      <c r="I171" s="72"/>
+      <c r="J171" s="72"/>
+      <c r="K171" s="72"/>
+      <c r="L171" s="72"/>
+      <c r="M171" s="73"/>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172" s="70"/>
+      <c r="C172" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="72"/>
+      <c r="L172" s="72"/>
+      <c r="M172" s="73"/>
+    </row>
+    <row r="173" spans="2:13">
+      <c r="B173" s="70"/>
+      <c r="C173" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="72"/>
+      <c r="E173" s="72"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="72"/>
+      <c r="H173" s="72"/>
+      <c r="I173" s="72"/>
+      <c r="J173" s="72"/>
+      <c r="K173" s="72"/>
+      <c r="L173" s="72"/>
+      <c r="M173" s="73"/>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174" s="70"/>
+      <c r="C174" s="85" t="s">
+        <v>465</v>
+      </c>
+      <c r="D174" s="72"/>
+      <c r="E174" s="72"/>
+      <c r="F174" s="72"/>
+      <c r="G174" s="72"/>
+      <c r="H174" s="72"/>
+      <c r="I174" s="72"/>
+      <c r="J174" s="72"/>
+      <c r="K174" s="72"/>
+      <c r="L174" s="72"/>
+      <c r="M174" s="73"/>
+    </row>
+    <row r="175" spans="2:13">
+      <c r="B175" s="70"/>
+      <c r="C175" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="D175" s="72"/>
+      <c r="E175" s="72"/>
+      <c r="F175" s="72"/>
+      <c r="G175" s="72"/>
+      <c r="H175" s="72"/>
+      <c r="I175" s="72"/>
+      <c r="J175" s="72"/>
+      <c r="K175" s="72"/>
+      <c r="L175" s="72"/>
+      <c r="M175" s="73"/>
+    </row>
+    <row r="176" spans="2:13">
+      <c r="B176" s="70"/>
+      <c r="C176" s="74" t="s">
+        <v>527</v>
+      </c>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="72"/>
+      <c r="H176" s="72"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="72"/>
+      <c r="K176" s="72"/>
+      <c r="L176" s="72"/>
+      <c r="M176" s="73"/>
+    </row>
+    <row r="177" spans="2:13">
+      <c r="B177" s="70"/>
+      <c r="C177" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="72"/>
+      <c r="H177" s="72"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="72"/>
+      <c r="K177" s="72"/>
+      <c r="L177" s="72"/>
+      <c r="M177" s="73"/>
+    </row>
+    <row r="178" spans="2:13">
+      <c r="B178" s="70"/>
+      <c r="C178" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D178" s="72"/>
+      <c r="E178" s="72"/>
+      <c r="F178" s="72"/>
+      <c r="G178" s="72"/>
+      <c r="H178" s="72"/>
+      <c r="I178" s="72"/>
+      <c r="J178" s="72"/>
+      <c r="K178" s="72"/>
+      <c r="L178" s="72"/>
+      <c r="M178" s="73"/>
+    </row>
+    <row r="179" spans="2:13">
+      <c r="B179" s="70"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="72"/>
+      <c r="E179" s="72"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="72"/>
+      <c r="H179" s="72"/>
+      <c r="I179" s="72"/>
+      <c r="J179" s="72"/>
+      <c r="K179" s="72"/>
+      <c r="L179" s="72"/>
+      <c r="M179" s="73"/>
+    </row>
+    <row r="180" spans="2:13">
+      <c r="B180" s="70"/>
+      <c r="C180" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="D180" s="72"/>
+      <c r="E180" s="72"/>
+      <c r="F180" s="72"/>
+      <c r="G180" s="72"/>
+      <c r="H180" s="72"/>
+      <c r="I180" s="72"/>
+      <c r="J180" s="72"/>
+      <c r="K180" s="72"/>
+      <c r="L180" s="72"/>
+      <c r="M180" s="73"/>
+    </row>
+    <row r="181" spans="2:13">
+      <c r="B181" s="70"/>
+      <c r="C181" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="D181" s="72"/>
+      <c r="E181" s="72"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="72"/>
+      <c r="H181" s="72"/>
+      <c r="I181" s="72"/>
+      <c r="J181" s="72"/>
+      <c r="K181" s="72"/>
+      <c r="L181" s="72"/>
+      <c r="M181" s="73"/>
+    </row>
+    <row r="182" spans="2:13">
+      <c r="B182" s="70"/>
+      <c r="C182" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="72"/>
+      <c r="H182" s="72"/>
+      <c r="I182" s="72"/>
+      <c r="J182" s="72"/>
+      <c r="K182" s="72"/>
+      <c r="L182" s="72"/>
+      <c r="M182" s="73"/>
+    </row>
+    <row r="183" spans="2:13">
+      <c r="B183" s="70"/>
+      <c r="C183" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="D183" s="72"/>
+      <c r="E183" s="72"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="72"/>
+      <c r="H183" s="72"/>
+      <c r="I183" s="72"/>
+      <c r="J183" s="72"/>
+      <c r="K183" s="72"/>
+      <c r="L183" s="72"/>
+      <c r="M183" s="73"/>
+    </row>
+    <row r="184" spans="2:13">
+      <c r="B184" s="70"/>
+      <c r="C184" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="D184" s="72"/>
+      <c r="E184" s="72"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="72"/>
+      <c r="H184" s="72"/>
+      <c r="I184" s="72"/>
+      <c r="J184" s="72"/>
+      <c r="K184" s="72"/>
+      <c r="L184" s="72"/>
+      <c r="M184" s="73"/>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="B185" s="70"/>
+      <c r="C185" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72"/>
+      <c r="K185" s="72"/>
+      <c r="L185" s="72"/>
+      <c r="M185" s="73"/>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="B186" s="70"/>
+      <c r="C186" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="72"/>
+      <c r="H186" s="72"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72"/>
+      <c r="K186" s="72"/>
+      <c r="L186" s="72"/>
+      <c r="M186" s="73"/>
+    </row>
+    <row r="187" spans="2:13">
+      <c r="B187" s="70"/>
+      <c r="C187" s="85" t="s">
+        <v>528</v>
+      </c>
+      <c r="D187" s="72"/>
+      <c r="E187" s="72"/>
+      <c r="F187" s="72"/>
+      <c r="G187" s="72"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="72"/>
+      <c r="J187" s="72"/>
+      <c r="K187" s="72"/>
+      <c r="L187" s="72"/>
+      <c r="M187" s="73"/>
+    </row>
+    <row r="188" spans="2:13">
+      <c r="B188" s="70"/>
+      <c r="C188" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="D188" s="72"/>
+      <c r="E188" s="72"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="72"/>
+      <c r="H188" s="72"/>
+      <c r="I188" s="72"/>
+      <c r="J188" s="72"/>
+      <c r="K188" s="72"/>
+      <c r="L188" s="72"/>
+      <c r="M188" s="73"/>
+    </row>
+    <row r="189" spans="2:13">
+      <c r="B189" s="70"/>
+      <c r="C189" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
+      <c r="I189" s="72"/>
+      <c r="J189" s="72"/>
+      <c r="K189" s="72"/>
+      <c r="L189" s="72"/>
+      <c r="M189" s="73"/>
+    </row>
+    <row r="190" spans="2:13">
+      <c r="B190" s="70"/>
+      <c r="C190" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D190" s="72"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="72"/>
+      <c r="G190" s="72"/>
+      <c r="H190" s="72"/>
+      <c r="I190" s="72"/>
+      <c r="J190" s="72"/>
+      <c r="K190" s="72"/>
+      <c r="L190" s="72"/>
+      <c r="M190" s="73"/>
+    </row>
+    <row r="191" spans="2:13">
+      <c r="B191" s="70"/>
+      <c r="C191" s="76"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="72"/>
+      <c r="G191" s="72"/>
+      <c r="H191" s="72"/>
+      <c r="I191" s="72"/>
+      <c r="J191" s="72"/>
+      <c r="K191" s="72"/>
+      <c r="L191" s="72"/>
+      <c r="M191" s="73"/>
+    </row>
+    <row r="192" spans="2:13">
+      <c r="B192" s="70"/>
+      <c r="C192" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="D192" s="72"/>
+      <c r="E192" s="72"/>
+      <c r="F192" s="72"/>
+      <c r="G192" s="72"/>
+      <c r="H192" s="72"/>
+      <c r="I192" s="72"/>
+      <c r="J192" s="72"/>
+      <c r="K192" s="72"/>
+      <c r="L192" s="72"/>
+      <c r="M192" s="73"/>
+    </row>
+    <row r="193" spans="2:13">
+      <c r="B193" s="70"/>
+      <c r="C193" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="D193" s="72"/>
+      <c r="E193" s="72"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="72"/>
+      <c r="H193" s="72"/>
+      <c r="I193" s="72"/>
+      <c r="J193" s="72"/>
+      <c r="K193" s="72"/>
+      <c r="L193" s="72"/>
+      <c r="M193" s="73"/>
+    </row>
+    <row r="194" spans="2:13">
+      <c r="B194" s="70"/>
+      <c r="C194" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="D194" s="72"/>
+      <c r="E194" s="72"/>
+      <c r="F194" s="72"/>
+      <c r="G194" s="72"/>
+      <c r="H194" s="72"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="72"/>
+      <c r="K194" s="72"/>
+      <c r="L194" s="72"/>
+      <c r="M194" s="73"/>
+    </row>
+    <row r="195" spans="2:13">
+      <c r="B195" s="70"/>
+      <c r="C195" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
+      <c r="I195" s="72"/>
+      <c r="J195" s="72"/>
+      <c r="K195" s="72"/>
+      <c r="L195" s="72"/>
+      <c r="M195" s="73"/>
+    </row>
+    <row r="196" spans="2:13">
+      <c r="B196" s="70"/>
+      <c r="C196" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="D196" s="72"/>
+      <c r="E196" s="72"/>
+      <c r="F196" s="72"/>
+      <c r="G196" s="72"/>
+      <c r="H196" s="72"/>
+      <c r="I196" s="72"/>
+      <c r="J196" s="72"/>
+      <c r="K196" s="72"/>
+      <c r="L196" s="72"/>
+      <c r="M196" s="73"/>
+    </row>
+    <row r="197" spans="2:13">
+      <c r="B197" s="70"/>
+      <c r="C197" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="72"/>
+      <c r="G197" s="72"/>
+      <c r="H197" s="72"/>
+      <c r="I197" s="72"/>
+      <c r="J197" s="72"/>
+      <c r="K197" s="72"/>
+      <c r="L197" s="72"/>
+      <c r="M197" s="73"/>
+    </row>
+    <row r="198" spans="2:13">
+      <c r="B198" s="70"/>
+      <c r="C198" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
+      <c r="I198" s="72"/>
+      <c r="J198" s="72"/>
+      <c r="K198" s="72"/>
+      <c r="L198" s="72"/>
+      <c r="M198" s="73"/>
+    </row>
+    <row r="199" spans="2:13">
+      <c r="B199" s="70"/>
+      <c r="C199" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="72"/>
+      <c r="G199" s="72"/>
+      <c r="H199" s="72"/>
+      <c r="I199" s="72"/>
+      <c r="J199" s="72"/>
+      <c r="K199" s="72"/>
+      <c r="L199" s="72"/>
+      <c r="M199" s="73"/>
+    </row>
+    <row r="200" spans="2:13">
+      <c r="B200" s="70"/>
+      <c r="C200" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="D200" s="72"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="72"/>
+      <c r="G200" s="72"/>
+      <c r="H200" s="72"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="72"/>
+      <c r="K200" s="72"/>
+      <c r="L200" s="72"/>
+      <c r="M200" s="73"/>
+    </row>
+    <row r="201" spans="2:13">
+      <c r="B201" s="70"/>
+      <c r="C201" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D201" s="72"/>
+      <c r="E201" s="72"/>
+      <c r="F201" s="72"/>
+      <c r="G201" s="72"/>
+      <c r="H201" s="72"/>
+      <c r="I201" s="72"/>
+      <c r="J201" s="72"/>
+      <c r="K201" s="72"/>
+      <c r="L201" s="72"/>
+      <c r="M201" s="73"/>
+    </row>
+    <row r="202" spans="2:13">
+      <c r="B202" s="70"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="72"/>
+      <c r="E202" s="72"/>
+      <c r="F202" s="72"/>
+      <c r="G202" s="72"/>
+      <c r="H202" s="72"/>
+      <c r="I202" s="72"/>
+      <c r="J202" s="72"/>
+      <c r="K202" s="72"/>
+      <c r="L202" s="72"/>
+      <c r="M202" s="73"/>
+    </row>
+    <row r="203" spans="2:13">
+      <c r="B203" s="70"/>
+      <c r="C203" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="D203" s="72"/>
+      <c r="E203" s="72"/>
+      <c r="F203" s="72"/>
+      <c r="G203" s="72"/>
+      <c r="H203" s="72"/>
+      <c r="I203" s="72"/>
+      <c r="J203" s="72"/>
+      <c r="K203" s="72"/>
+      <c r="L203" s="72"/>
+      <c r="M203" s="73"/>
+    </row>
+    <row r="204" spans="2:13">
+      <c r="B204" s="70"/>
+      <c r="C204" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="D204" s="72"/>
+      <c r="E204" s="72"/>
+      <c r="F204" s="72"/>
+      <c r="G204" s="72"/>
+      <c r="H204" s="72"/>
+      <c r="I204" s="72"/>
+      <c r="J204" s="72"/>
+      <c r="K204" s="72"/>
+      <c r="L204" s="72"/>
+      <c r="M204" s="73"/>
+    </row>
+    <row r="205" spans="2:13">
+      <c r="B205" s="70"/>
+      <c r="C205" s="74" t="s">
+        <v>532</v>
+      </c>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
+      <c r="L205" s="72"/>
+      <c r="M205" s="73"/>
+    </row>
+    <row r="206" spans="2:13">
+      <c r="B206" s="70"/>
+      <c r="C206" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="D206" s="72"/>
+      <c r="E206" s="72"/>
+      <c r="F206" s="72"/>
+      <c r="G206" s="72"/>
+      <c r="H206" s="72"/>
+      <c r="I206" s="72"/>
+      <c r="J206" s="72"/>
+      <c r="K206" s="72"/>
+      <c r="L206" s="72"/>
+      <c r="M206" s="73"/>
+    </row>
+    <row r="207" spans="2:13">
+      <c r="B207" s="70"/>
+      <c r="C207" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="72"/>
+      <c r="H207" s="72"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="72"/>
+      <c r="L207" s="72"/>
+      <c r="M207" s="73"/>
+    </row>
+    <row r="208" spans="2:13">
+      <c r="B208" s="70"/>
+      <c r="C208" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="D208" s="72"/>
+      <c r="E208" s="72"/>
+      <c r="F208" s="72"/>
+      <c r="G208" s="72"/>
+      <c r="H208" s="72"/>
+      <c r="I208" s="72"/>
+      <c r="J208" s="72"/>
+      <c r="K208" s="72"/>
+      <c r="L208" s="72"/>
+      <c r="M208" s="73"/>
+    </row>
+    <row r="209" spans="2:13">
+      <c r="B209" s="70"/>
+      <c r="C209" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="72"/>
+      <c r="G209" s="72"/>
+      <c r="H209" s="72"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="72"/>
+      <c r="L209" s="72"/>
+      <c r="M209" s="73"/>
+    </row>
+    <row r="210" spans="2:13">
+      <c r="B210" s="70"/>
+      <c r="C210" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D210" s="72"/>
+      <c r="E210" s="72"/>
+      <c r="F210" s="72"/>
+      <c r="G210" s="72"/>
+      <c r="H210" s="72"/>
+      <c r="I210" s="72"/>
+      <c r="J210" s="72"/>
+      <c r="K210" s="72"/>
+      <c r="L210" s="72"/>
+      <c r="M210" s="73"/>
+    </row>
+    <row r="211" spans="2:13">
+      <c r="B211" s="70"/>
+      <c r="C211" s="76"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="72"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="73"/>
+    </row>
+    <row r="212" spans="2:13">
+      <c r="B212" s="70"/>
+      <c r="C212" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
+      <c r="H212" s="72"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
+      <c r="M212" s="73"/>
+    </row>
+    <row r="213" spans="2:13">
+      <c r="B213" s="70"/>
+      <c r="C213" s="84" t="s">
+        <v>476</v>
+      </c>
+      <c r="D213" s="72"/>
+      <c r="E213" s="72"/>
+      <c r="F213" s="72"/>
+      <c r="G213" s="72"/>
+      <c r="H213" s="72"/>
+      <c r="I213" s="72"/>
+      <c r="J213" s="72"/>
+      <c r="K213" s="72"/>
+      <c r="L213" s="72"/>
+      <c r="M213" s="73"/>
+    </row>
+    <row r="214" spans="2:13">
+      <c r="B214" s="70"/>
+      <c r="C214" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="D214" s="72"/>
+      <c r="E214" s="72"/>
+      <c r="F214" s="72"/>
+      <c r="G214" s="72"/>
+      <c r="H214" s="72"/>
+      <c r="I214" s="72"/>
+      <c r="J214" s="72"/>
+      <c r="K214" s="72"/>
+      <c r="L214" s="72"/>
+      <c r="M214" s="73"/>
+    </row>
+    <row r="215" spans="2:13">
+      <c r="B215" s="70"/>
+      <c r="C215" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="D215" s="72"/>
+      <c r="E215" s="72"/>
+      <c r="F215" s="72"/>
+      <c r="G215" s="72"/>
+      <c r="H215" s="72"/>
+      <c r="I215" s="72"/>
+      <c r="J215" s="72"/>
+      <c r="K215" s="72"/>
+      <c r="L215" s="72"/>
+      <c r="M215" s="73"/>
+    </row>
+    <row r="216" spans="2:13">
+      <c r="B216" s="70"/>
+      <c r="C216" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="D216" s="72"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="72"/>
+      <c r="G216" s="72"/>
+      <c r="H216" s="72"/>
+      <c r="I216" s="72"/>
+      <c r="J216" s="72"/>
+      <c r="K216" s="72"/>
+      <c r="L216" s="72"/>
+      <c r="M216" s="73"/>
+    </row>
+    <row r="217" spans="2:13">
+      <c r="B217" s="70"/>
+      <c r="C217" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="D217" s="72"/>
+      <c r="E217" s="72"/>
+      <c r="F217" s="72"/>
+      <c r="G217" s="72"/>
+      <c r="H217" s="72"/>
+      <c r="I217" s="72"/>
+      <c r="J217" s="72"/>
+      <c r="K217" s="72"/>
+      <c r="L217" s="72"/>
+      <c r="M217" s="73"/>
+    </row>
+    <row r="218" spans="2:13">
+      <c r="B218" s="70"/>
+      <c r="C218" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="D218" s="72"/>
+      <c r="E218" s="72"/>
+      <c r="F218" s="72"/>
+      <c r="G218" s="72"/>
+      <c r="H218" s="72"/>
+      <c r="I218" s="72"/>
+      <c r="J218" s="72"/>
+      <c r="K218" s="72"/>
+      <c r="L218" s="72"/>
+      <c r="M218" s="73"/>
+    </row>
+    <row r="219" spans="2:13">
+      <c r="B219" s="70"/>
+      <c r="C219" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D219" s="72"/>
+      <c r="E219" s="72"/>
+      <c r="F219" s="72"/>
+      <c r="G219" s="72"/>
+      <c r="H219" s="72"/>
+      <c r="I219" s="72"/>
+      <c r="J219" s="72"/>
+      <c r="K219" s="72"/>
+      <c r="L219" s="72"/>
+      <c r="M219" s="73"/>
+    </row>
+    <row r="220" spans="2:13">
+      <c r="B220" s="70"/>
+      <c r="C220" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D220" s="72"/>
+      <c r="E220" s="72"/>
+      <c r="F220" s="72"/>
+      <c r="G220" s="72"/>
+      <c r="H220" s="72"/>
+      <c r="I220" s="72"/>
+      <c r="J220" s="72"/>
+      <c r="K220" s="72"/>
+      <c r="L220" s="72"/>
+      <c r="M220" s="73"/>
+    </row>
+    <row r="221" spans="2:13">
+      <c r="B221" s="70"/>
+      <c r="C221" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D221" s="72"/>
+      <c r="E221" s="72"/>
+      <c r="F221" s="72"/>
+      <c r="G221" s="72"/>
+      <c r="H221" s="72"/>
+      <c r="I221" s="72"/>
+      <c r="J221" s="72"/>
+      <c r="K221" s="72"/>
+      <c r="L221" s="72"/>
+      <c r="M221" s="73"/>
+    </row>
+    <row r="222" spans="2:13">
+      <c r="B222" s="70"/>
+      <c r="C222" s="72"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="72"/>
+      <c r="K222" s="72"/>
+      <c r="L222" s="72"/>
+      <c r="M222" s="73"/>
+    </row>
+    <row r="223" spans="2:13">
+      <c r="B223" s="78"/>
+      <c r="C223" s="79"/>
+      <c r="D223" s="79"/>
+      <c r="E223" s="79"/>
+      <c r="F223" s="79"/>
+      <c r="G223" s="79"/>
+      <c r="H223" s="79"/>
+      <c r="I223" s="79"/>
+      <c r="J223" s="79"/>
+      <c r="K223" s="79"/>
+      <c r="L223" s="79"/>
+      <c r="M223" s="80"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E692"/>
@@ -5708,17 +13706,17 @@
     </row>
     <row r="73" spans="3:4">
       <c r="D73" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="D75" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="D77" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="4:4">
@@ -7893,11 +15891,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L246"/>
+  <dimension ref="B2:L249"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -7907,17 +15905,17 @@
   <sheetData>
     <row r="2" spans="2:9" ht="19">
       <c r="I2" s="60" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -7925,27 +15923,27 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="C16" s="54" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -7955,7 +15953,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -8093,7 +16091,7 @@
     </row>
     <row r="63" spans="3:5">
       <c r="D63" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="3:5">
@@ -8113,7 +16111,7 @@
     </row>
     <row r="69" spans="3:5">
       <c r="E69" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="3:5">
@@ -8236,7 +16234,7 @@
     </row>
     <row r="146" spans="3:5">
       <c r="E146" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="3:5">
@@ -8256,371 +16254,337 @@
     </row>
     <row r="157" spans="3:5">
       <c r="C157" s="55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="3:5">
       <c r="C159" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4">
       <c r="C161" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4">
+      <c r="D166" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="D167" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4">
+      <c r="D168" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="D169" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4">
+      <c r="C171" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="D172" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4">
+      <c r="D175" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="D176" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="D178" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="E180" s="45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5">
+      <c r="E181" s="49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5">
+      <c r="E182" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5">
+      <c r="E183" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5">
+      <c r="E184" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5">
+      <c r="D186" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="D187" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5">
+      <c r="C190" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="D192" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="42" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="3:5">
-      <c r="D163" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5">
-      <c r="D164" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5">
-      <c r="E166" s="45" t="s">
+    <row r="200" spans="4:4">
+      <c r="D200" s="52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="3:5">
-      <c r="E167" s="42" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5">
-      <c r="E168" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5">
-      <c r="E169" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5">
-      <c r="D171" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5">
-      <c r="D172" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5">
-      <c r="D173" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5">
-      <c r="D175" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5">
-      <c r="E177" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5">
-      <c r="E178" s="49" t="s">
+    <row r="209" spans="3:12">
+      <c r="C209" s="55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="211" spans="3:12">
+      <c r="C211" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="3:12">
+      <c r="D214" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="3:12">
+      <c r="D215" s="4"/>
+      <c r="E215" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="3:12">
+      <c r="D216" s="7"/>
+      <c r="E216" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+      <c r="L216" s="10"/>
+    </row>
+    <row r="217" spans="3:12">
+      <c r="D217" s="7"/>
+      <c r="E217" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
+      <c r="L217" s="10"/>
+    </row>
+    <row r="218" spans="3:12">
+      <c r="D218" s="7"/>
+      <c r="E218" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+      <c r="L218" s="10"/>
+    </row>
+    <row r="219" spans="3:12">
+      <c r="D219" s="17"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="19"/>
+      <c r="K219" s="19"/>
+      <c r="L219" s="20"/>
+    </row>
+    <row r="222" spans="3:12">
+      <c r="D222" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="223" spans="3:12">
+      <c r="D223" s="4"/>
+      <c r="E223" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="3:12">
+      <c r="D224" s="7"/>
+      <c r="E224" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="10"/>
+    </row>
+    <row r="225" spans="3:12">
+      <c r="D225" s="17"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="19"/>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="19"/>
+      <c r="K225" s="19"/>
+      <c r="L225" s="20"/>
+    </row>
+    <row r="226" spans="3:12">
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
+      <c r="L226" s="9"/>
+    </row>
+    <row r="227" spans="3:12">
+      <c r="C227" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="3:5">
-      <c r="E179" s="42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5">
-      <c r="E180" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5">
-      <c r="E181" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5">
-      <c r="D183" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5">
-      <c r="D184" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5">
-      <c r="C187" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5">
-      <c r="D189" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5">
-      <c r="D191" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="193" spans="3:4">
-      <c r="D193" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="194" spans="3:4">
-      <c r="D194" s="51" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="195" spans="3:4">
-      <c r="D195" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="196" spans="3:4">
-      <c r="D196" s="42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="197" spans="3:4">
-      <c r="D197" s="52" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="198" spans="3:4">
-      <c r="D198" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="199" spans="3:4">
-      <c r="D199" s="51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="200" spans="3:4">
-      <c r="D200" s="51" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="202" spans="3:4">
-      <c r="D202" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="203" spans="3:4">
-      <c r="D203" s="3" t="s">
+    <row r="229" spans="3:12">
+      <c r="D229" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="231" spans="3:12">
+      <c r="D231" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="206" spans="3:4">
-      <c r="C206" s="55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="208" spans="3:4">
-      <c r="C208" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="211" spans="3:12">
-      <c r="D211" s="3" t="s">
+    <row r="232" spans="3:12">
+      <c r="D232" s="4"/>
+      <c r="E232" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="3:12">
+      <c r="D233" s="7"/>
+      <c r="E233" s="58" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="212" spans="3:12">
-      <c r="D212" s="4"/>
-      <c r="E212" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-      <c r="L212" s="6"/>
-    </row>
-    <row r="213" spans="3:12">
-      <c r="D213" s="7"/>
-      <c r="E213" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="10"/>
-    </row>
-    <row r="214" spans="3:12">
-      <c r="D214" s="7"/>
-      <c r="E214" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="10"/>
-    </row>
-    <row r="215" spans="3:12">
-      <c r="D215" s="7"/>
-      <c r="E215" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="10"/>
-    </row>
-    <row r="216" spans="3:12">
-      <c r="D216" s="17"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="19"/>
-      <c r="K216" s="19"/>
-      <c r="L216" s="20"/>
-    </row>
-    <row r="219" spans="3:12">
-      <c r="D219" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="220" spans="3:12">
-      <c r="D220" s="4"/>
-      <c r="E220" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
-      <c r="L220" s="6"/>
-    </row>
-    <row r="221" spans="3:12">
-      <c r="D221" s="7"/>
-      <c r="E221" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="9"/>
-      <c r="L221" s="10"/>
-    </row>
-    <row r="222" spans="3:12">
-      <c r="D222" s="17"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="20"/>
-    </row>
-    <row r="223" spans="3:12">
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="9"/>
-      <c r="L223" s="9"/>
-    </row>
-    <row r="224" spans="3:12">
-      <c r="C224" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="226" spans="4:12">
-      <c r="D226" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="228" spans="4:12">
-      <c r="D228" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="229" spans="4:12">
-      <c r="D229" s="4"/>
-      <c r="E229" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="6"/>
-    </row>
-    <row r="230" spans="4:12">
-      <c r="D230" s="7"/>
-      <c r="E230" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="F230" s="9"/>
-      <c r="G230" s="9"/>
-      <c r="H230" s="9"/>
-      <c r="I230" s="9"/>
-      <c r="J230" s="9"/>
-      <c r="K230" s="9"/>
-      <c r="L230" s="10"/>
-    </row>
-    <row r="231" spans="4:12">
-      <c r="D231" s="7"/>
-      <c r="E231" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F231" s="9"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="9"/>
-      <c r="I231" s="9"/>
-      <c r="J231" s="9"/>
-      <c r="K231" s="9"/>
-      <c r="L231" s="10"/>
-    </row>
-    <row r="232" spans="4:12">
-      <c r="D232" s="7"/>
-      <c r="E232" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="9"/>
-      <c r="I232" s="9"/>
-      <c r="J232" s="9"/>
-      <c r="K232" s="9"/>
-      <c r="L232" s="10"/>
-    </row>
-    <row r="233" spans="4:12">
-      <c r="D233" s="7"/>
-      <c r="E233" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
@@ -8630,10 +16594,10 @@
       <c r="K233" s="9"/>
       <c r="L233" s="10"/>
     </row>
-    <row r="234" spans="4:12">
+    <row r="234" spans="3:12">
       <c r="D234" s="7"/>
       <c r="E234" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
@@ -8643,10 +16607,10 @@
       <c r="K234" s="9"/>
       <c r="L234" s="10"/>
     </row>
-    <row r="235" spans="4:12">
+    <row r="235" spans="3:12">
       <c r="D235" s="7"/>
       <c r="E235" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
@@ -8656,76 +16620,76 @@
       <c r="K235" s="9"/>
       <c r="L235" s="10"/>
     </row>
-    <row r="236" spans="4:12">
-      <c r="D236" s="17"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="19"/>
-      <c r="L236" s="20"/>
-    </row>
-    <row r="238" spans="4:12">
-      <c r="D238" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="239" spans="4:12">
-      <c r="D239" s="4"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="6"/>
-    </row>
-    <row r="240" spans="4:12">
-      <c r="D240" s="7"/>
-      <c r="E240" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-      <c r="L240" s="10"/>
+    <row r="236" spans="3:12">
+      <c r="D236" s="7"/>
+      <c r="E236" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
+      <c r="L236" s="10"/>
+    </row>
+    <row r="237" spans="3:12">
+      <c r="D237" s="7"/>
+      <c r="E237" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+      <c r="L237" s="10"/>
+    </row>
+    <row r="238" spans="3:12">
+      <c r="D238" s="7"/>
+      <c r="E238" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="10"/>
+    </row>
+    <row r="239" spans="3:12">
+      <c r="D239" s="17"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="19"/>
+      <c r="K239" s="19"/>
+      <c r="L239" s="20"/>
     </row>
     <row r="241" spans="4:12">
-      <c r="D241" s="7"/>
-      <c r="E241" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
-      <c r="L241" s="10"/>
+      <c r="D241" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="242" spans="4:12">
-      <c r="D242" s="7"/>
-      <c r="E242" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
-      <c r="L242" s="10"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="6"/>
     </row>
     <row r="243" spans="4:12">
       <c r="D243" s="7"/>
-      <c r="E243" s="12" t="s">
-        <v>312</v>
+      <c r="E243" s="59" t="s">
+        <v>299</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
@@ -8738,7 +16702,7 @@
     <row r="244" spans="4:12">
       <c r="D244" s="7"/>
       <c r="E244" s="12" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
@@ -8751,7 +16715,7 @@
     <row r="245" spans="4:12">
       <c r="D245" s="7"/>
       <c r="E245" s="12" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
@@ -8762,15 +16726,54 @@
       <c r="L245" s="10"/>
     </row>
     <row r="246" spans="4:12">
-      <c r="D246" s="17"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="20"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="9"/>
+      <c r="L246" s="10"/>
+    </row>
+    <row r="247" spans="4:12">
+      <c r="D247" s="7"/>
+      <c r="E247" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="9"/>
+      <c r="L247" s="10"/>
+    </row>
+    <row r="248" spans="4:12">
+      <c r="D248" s="7"/>
+      <c r="E248" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
+      <c r="L248" s="10"/>
+    </row>
+    <row r="249" spans="4:12">
+      <c r="D249" s="17"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="19"/>
+      <c r="K249" s="19"/>
+      <c r="L249" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8783,4 +16786,301 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D91"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27" s="86" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="42"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="D36" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" s="42"/>
+    </row>
+    <row r="42" spans="3:4" ht="20" customHeight="1">
+      <c r="D42" s="47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="D50" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="D51" s="42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52" s="42"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" s="45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="D58" s="45"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="D63" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="D65" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="D70" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="D72" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="D74" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="55" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="D79" s="45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="D81" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="D83" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="D85" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="D86" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D27" location="AsyncTask代码示例!A1" tooltip="点击查看AsyncTask代码示例" display="AsyncTask代码示例"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Document/Android开发.xlsx
+++ b/Document/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="0" windowWidth="25600" windowHeight="18020" tabRatio="627" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="3320" yWindow="0" windowWidth="25600" windowHeight="18020" tabRatio="627" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="多线程" sheetId="9" r:id="rId9"/>
     <sheet name="常见问题" sheetId="10" r:id="rId10"/>
     <sheet name="AsyncTask代码示例" sheetId="11" r:id="rId11"/>
+    <sheet name="工作表1" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="744">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3425,10 +3426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 AsyncTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程通信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7005,10 +7002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    轻量级的异步处理类,该类是抽象的,需要继承该类，来实现异步操作.适用于简单的异步处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7840,6 +7833,5104 @@
         <charset val="134"/>
       </rPr>
       <t>"dowloading...."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DownloadTask().execute(DOWNLOAD_URL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6 外部启动AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncTask的execute()方法，可以让外部的类对象调用以启动任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    并且在主线程执行的事件过长(&gt;5s),Android系统也会弹出ANR的响应提示窗口,所以耗时的操作也不应该在UI线程中执行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配子线程去处理任务,而是在主线程中处理,明显,这种方式会阻塞UI线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handler允许发送和处理Message或者Runnable对象，并且会关联到主线程的MessageQueue 中</t>
+  </si>
+  <si>
+    <t>Handler实例可以把Message或Runnable压入到消息队列，并且从消息队列中取出 Message或Runnable，进而操作它们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 post Runnable对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.1.2 Handler 与 HandlerThread结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以Handler 提供了Post()和sendMessage()分别处理将Runnable对象和Message对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     * Runnable对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    };</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Runnable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">downloadTask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Runnable() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF808000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Override</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>run() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEBUG_INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"Task thread id :" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>currentThread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>().getId());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 任务处理过程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;&amp; (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= downLoading(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>// 模拟下载过程,每隔1秒钟,返回1个DOWNLOAD_SIZE单位的进度</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downLoading(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preProgress){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 故意睡眠模拟耗时</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleepForSeconds(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress = preProgress + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DOWNLOAD_SIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    progress = (progress &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) ? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: progress;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEBUG_INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"download size:" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ progress);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(InterruptedException e){</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sleep"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"interrupted"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Handler mHandler = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Handler();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mHandler.post(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>创建了一个Handler,它就会和创建它的线程/消息队列绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以在主线程中通过Handler mHandler = new Handler() 创建的Hander是与主线程绑定的,即系统并不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.1.1 Handler直接post Runnable对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1中并不能够满足多线程的要求,因为我们往往在主线程中创建的Handler,这时我们可以结合HandlerThread来完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handlerThread.start();</t>
+  </si>
+  <si>
+    <t>Handler handler = new Handler(handlerThread.getLooper());</t>
+  </si>
+  <si>
+    <t>handler.post(downloadTask);</t>
+  </si>
+  <si>
+    <t>HandlerThread handlerThread = new HandlerThread("Download handler thread");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果表明Runnable对象的处理过程的线程id和主线程是不一样的,主线程当然也不会被阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 sendMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如进度信息,因为工作线程是不能直接更新UI,即,代码上我们是不能直接在处理过程中对UI的元素进行操作.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这时候可以通过sendMessage()方法通知主线程，让主线程去完成UI的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.2.1 获取Message对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果消息池中是空的,才会使用构造方法实例化一个新Message,这样有利于消息资源的利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message.obtain()会从消息池中获取一个Message对象.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息池中的消息是有上限的,过多会影响系统资源的使用.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外,Handler.obtainMessage()内部也使用的是Message.obtain().</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综上,获取一个Message对象的代码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 多线程之AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 多线程之Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上,Runnable对象的处理过程是分配了子线程的了,不过在处理过程中,还是有需要将处理过程的一些必要的信息更新到UI界面上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message message = Message.obtain();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以把数据包装在Bundle对象中，并通过Message的setData(Bundle bundle)设置进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message中的what 是一个int的值,可以将其封装成enum的形式,让其具有一定的业务意义的code,在具体处理的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是可以通过这个有一定业务意义的code进行相应的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public enum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MessageCode {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgUpdateProgress,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgWriteFile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgUpdateDB,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                Bundle bundle = msg.getData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                updateProgress(progress);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Handler </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">msgHandler </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Handler(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handleMessage(Message msg){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 该Handler处理Message:更新进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what = msg.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        MessageCode code = MessageCode.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>()[what];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(code){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgUpdateProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress = bundle.getDouble(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progressKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        2.2.3 sendMessage的Handler对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现handleMessage()方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        2.2.2 通过Message对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置需要传递的数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Message.obtain()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个静态的方法或者 Handler.obtainMessage()获取，而不建议直接使用Message的构造方法获取.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 通过实现OnClickListener的onClick()也可以实现点击事件的绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                btnBeginClicked();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                btnHandlerThreadClicked();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    btnResumClicked();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    btnStopClicked();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                btnCancelClicked();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 在主线程中 new Handler(),并通过该Handler对象post一个Runnable对象到对队列中执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 测试结果显示主线程被阻塞,查看其线程id,跟主线程的id是一样的.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 说明该任务并没有在子线程中执行,而是在它所绑定的主线程中执行的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 所以这种简单的做法是不能满足多线程后台异步处理任务的要求的.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 通过与HandlerThread结合的方式来实现多线程的处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 并通过Message机制实现线程的通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        start();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dataReset();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        handlerThread.start();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    * 在子线程成也同样可以用这个对象来向主线程发送消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Bundle bundle = msg.getData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    updateProgress(progress);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        message.setData(bundle);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.os.Handler;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.os.HandlerThread;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.os.Looper;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android.os.Message;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HandlerActivity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Activity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OnClickListener{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private final static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DEBUG_INFO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Handler_test"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 任务的进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progressKey </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"progress"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 可以控制任务的停止</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private final double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DOWNLOAD_SIZE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 每秒钟下载增量,达到100任务结束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TextView </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtViewProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnPauseOrResume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">protected void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCreate(Bundle savedInstanceStat){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.onCreate(savedInstanceStat);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        setContentView(R.layout.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>activity_handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 线程的id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEBUG_INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"Main thread id:" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>currentThread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>().getId());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">txtViewProgress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= (TextView)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idTxtProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 绑定点击事件的另一种方式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Button btnBegin = (Button)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHDDownload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        btnBegin.setOnClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Button btnHdlerThread = (Button)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHdlerThread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        btnHdlerThread.setOnClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">btnPauseOrResume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= (Button)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHDStop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnPauseOrResume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setOnClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Button btnCancel = (Button)findViewById(R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHDCancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        btnCancel.setOnClickListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Override</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onClick(View view){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>viewId = view.getId();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(viewId){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHDDownload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHdlerThread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHDStop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnPauseOrResume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Pause"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnPauseOrResume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Resume"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R.id.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idBtnHDCancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dataReset(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// ---------------- Handler直接post runnable对象测试 ----------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnBeginClicked(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtViewProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.setText(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"阻塞中..."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Handler mHandler = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Handler();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        mHandler.post(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// ---------------- Handler 与 HandlerThread结合测试 ----------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnHandlerThreadClicked(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>start(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        HandlerThread handlerThread = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HandlerThread(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Download handler thread"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 直接用Handler来构造方法也是可以的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Handler handler = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Handler(handlerThread.getLooper());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        handler.post(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downloadTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// Handler 与 Message,线程间通信,Handler需要实现handleMessage()方法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public enum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MessageCode {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgUpdateProgress</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/* 这种方式定义的msgHandler对象,哪怕post Runnable对象的时候，用的不是这个msgHandler对象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Handler </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">msgHandler </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Handler(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handleMessage(Message msg){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 该Handler处理Message:更新进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what = msg.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            MessageCode code = MessageCode.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>()[what];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">switch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(code){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgUpdateProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress = bundle.getDouble(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progressKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 更新UI界面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updateProgress(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEBUG_INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"updateProgress thread id :" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>currentThread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>().getId());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        progress *= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        String result = String.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"%.0f"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,progress);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txtViewProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.setText(result + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnStopClicked(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnResumClicked(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btnCancelClicked(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Runnable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">downloadTask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Runnable() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>run() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEBUG_INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"Task thread id :" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>currentThread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>().getId());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 任务处理过程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;&amp; (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 通知主线程:我要更新进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>publishMessage(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 通知主线程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>publishMessage(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Message message = Message.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obtain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Bundle bundle = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bundle();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        bundle.putDouble(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progressKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,progress);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        message.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">what </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= MessageCode.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MsgUpdateProgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.ordinal();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>msgHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.sendMessage(message);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 模拟下载过程,每隔1秒钟,返回1个DOWNLOAD_SIZE单位的进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downLoading(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preProgress){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 故意睡眠模拟耗时</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleepForSeconds(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">progress = preProgress + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DOWNLOAD_SIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        progress = (progress &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) ? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: progress;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEBUG_INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"download size:" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ progress);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 通过让线程睡眠来模拟任务要消耗的时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleepForSeconds(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seconds){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Thread.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(seconds * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(InterruptedException e){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Log.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sleep"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"interrupted"</t>
     </r>
     <r>
       <rPr>
@@ -8227,7 +13318,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="102">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8330,8 +13421,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8513,8 +13616,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="102">
+  <cellStyles count="114">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8616,6 +13746,18 @@
     <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10009,57 +15151,57 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -10078,7 +15220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M223"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A183" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -10087,22 +15229,22 @@
   <sheetData>
     <row r="3" spans="2:13" ht="19">
       <c r="G3" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="17">
       <c r="B14" s="53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -10122,7 +15264,7 @@
     <row r="17" spans="2:13">
       <c r="B17" s="70"/>
       <c r="C17" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
@@ -10138,7 +15280,7 @@
     <row r="18" spans="2:13">
       <c r="B18" s="70"/>
       <c r="C18" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
@@ -10154,7 +15296,7 @@
     <row r="19" spans="2:13">
       <c r="B19" s="70"/>
       <c r="C19" s="75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -10184,7 +15326,7 @@
     <row r="21" spans="2:13">
       <c r="B21" s="70"/>
       <c r="C21" s="74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="72"/>
@@ -10200,7 +15342,7 @@
     <row r="22" spans="2:13">
       <c r="B22" s="70"/>
       <c r="C22" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -10216,7 +15358,7 @@
     <row r="23" spans="2:13">
       <c r="B23" s="70"/>
       <c r="C23" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="72"/>
@@ -10232,7 +15374,7 @@
     <row r="24" spans="2:13">
       <c r="B24" s="70"/>
       <c r="C24" s="75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
@@ -10248,7 +15390,7 @@
     <row r="25" spans="2:13">
       <c r="B25" s="70"/>
       <c r="C25" s="75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
@@ -10264,7 +15406,7 @@
     <row r="26" spans="2:13">
       <c r="B26" s="70"/>
       <c r="C26" s="75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
@@ -10280,7 +15422,7 @@
     <row r="27" spans="2:13">
       <c r="B27" s="70"/>
       <c r="C27" s="75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
@@ -10296,7 +15438,7 @@
     <row r="28" spans="2:13">
       <c r="B28" s="70"/>
       <c r="C28" s="75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
@@ -10312,7 +15454,7 @@
     <row r="29" spans="2:13">
       <c r="B29" s="70"/>
       <c r="C29" s="75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
@@ -10342,7 +15484,7 @@
     <row r="31" spans="2:13">
       <c r="B31" s="70"/>
       <c r="C31" s="74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
@@ -10358,7 +15500,7 @@
     <row r="32" spans="2:13">
       <c r="B32" s="70"/>
       <c r="C32" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
@@ -10374,7 +15516,7 @@
     <row r="33" spans="2:13">
       <c r="B33" s="70"/>
       <c r="C33" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D33" s="72"/>
       <c r="E33" s="72"/>
@@ -10390,7 +15532,7 @@
     <row r="34" spans="2:13">
       <c r="B34" s="70"/>
       <c r="C34" s="75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
@@ -10406,7 +15548,7 @@
     <row r="35" spans="2:13">
       <c r="B35" s="70"/>
       <c r="C35" s="75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
@@ -10422,7 +15564,7 @@
     <row r="36" spans="2:13">
       <c r="B36" s="70"/>
       <c r="C36" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
@@ -10438,7 +15580,7 @@
     <row r="37" spans="2:13">
       <c r="B37" s="70"/>
       <c r="C37" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -10454,7 +15596,7 @@
     <row r="38" spans="2:13">
       <c r="B38" s="70"/>
       <c r="C38" s="75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
@@ -10470,7 +15612,7 @@
     <row r="39" spans="2:13">
       <c r="B39" s="70"/>
       <c r="C39" s="75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
@@ -10500,7 +15642,7 @@
     <row r="41" spans="2:13">
       <c r="B41" s="70"/>
       <c r="C41" s="74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
@@ -10516,7 +15658,7 @@
     <row r="42" spans="2:13">
       <c r="B42" s="70"/>
       <c r="C42" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="72"/>
@@ -10532,7 +15674,7 @@
     <row r="43" spans="2:13">
       <c r="B43" s="70"/>
       <c r="C43" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="72"/>
@@ -10548,7 +15690,7 @@
     <row r="44" spans="2:13">
       <c r="B44" s="70"/>
       <c r="C44" s="75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
@@ -10564,7 +15706,7 @@
     <row r="45" spans="2:13">
       <c r="B45" s="70"/>
       <c r="C45" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="72"/>
@@ -10580,7 +15722,7 @@
     <row r="46" spans="2:13">
       <c r="B46" s="70"/>
       <c r="C46" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
@@ -10596,7 +15738,7 @@
     <row r="47" spans="2:13">
       <c r="B47" s="70"/>
       <c r="C47" s="75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="72"/>
@@ -10612,7 +15754,7 @@
     <row r="48" spans="2:13">
       <c r="B48" s="70"/>
       <c r="C48" s="75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="72"/>
@@ -10628,7 +15770,7 @@
     <row r="49" spans="2:13">
       <c r="B49" s="70"/>
       <c r="C49" s="75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="72"/>
@@ -10644,7 +15786,7 @@
     <row r="50" spans="2:13">
       <c r="B50" s="70"/>
       <c r="C50" s="75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="72"/>
@@ -10674,7 +15816,7 @@
     <row r="52" spans="2:13">
       <c r="B52" s="70"/>
       <c r="C52" s="74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D52" s="72"/>
       <c r="E52" s="72"/>
@@ -10690,7 +15832,7 @@
     <row r="53" spans="2:13">
       <c r="B53" s="70"/>
       <c r="C53" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D53" s="72"/>
       <c r="E53" s="72"/>
@@ -10706,7 +15848,7 @@
     <row r="54" spans="2:13">
       <c r="B54" s="70"/>
       <c r="C54" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
@@ -10722,7 +15864,7 @@
     <row r="55" spans="2:13">
       <c r="B55" s="70"/>
       <c r="C55" s="75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D55" s="72"/>
       <c r="E55" s="72"/>
@@ -10738,7 +15880,7 @@
     <row r="56" spans="2:13">
       <c r="B56" s="70"/>
       <c r="C56" s="75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D56" s="72"/>
       <c r="E56" s="72"/>
@@ -10754,7 +15896,7 @@
     <row r="57" spans="2:13">
       <c r="B57" s="70"/>
       <c r="C57" s="75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D57" s="72"/>
       <c r="E57" s="72"/>
@@ -10770,7 +15912,7 @@
     <row r="58" spans="2:13">
       <c r="B58" s="70"/>
       <c r="C58" s="75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D58" s="72"/>
       <c r="E58" s="72"/>
@@ -10786,7 +15928,7 @@
     <row r="59" spans="2:13">
       <c r="B59" s="70"/>
       <c r="C59" s="75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D59" s="72"/>
       <c r="E59" s="72"/>
@@ -10802,7 +15944,7 @@
     <row r="60" spans="2:13">
       <c r="B60" s="70"/>
       <c r="C60" s="75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D60" s="72"/>
       <c r="E60" s="72"/>
@@ -10818,7 +15960,7 @@
     <row r="61" spans="2:13">
       <c r="B61" s="70"/>
       <c r="C61" s="75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D61" s="72"/>
       <c r="E61" s="72"/>
@@ -10862,7 +16004,7 @@
     <row r="64" spans="2:13">
       <c r="B64" s="70"/>
       <c r="C64" s="74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
@@ -10919,7 +16061,7 @@
     </row>
     <row r="68" spans="2:13" ht="17">
       <c r="B68" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -10939,7 +16081,7 @@
     <row r="71" spans="2:13">
       <c r="B71" s="70"/>
       <c r="C71" s="81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D71" s="72"/>
       <c r="E71" s="72"/>
@@ -10969,7 +16111,7 @@
     <row r="73" spans="2:13">
       <c r="B73" s="70"/>
       <c r="C73" s="81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D73" s="72"/>
       <c r="E73" s="72"/>
@@ -10985,7 +16127,7 @@
     <row r="74" spans="2:13">
       <c r="B74" s="70"/>
       <c r="C74" s="81" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D74" s="72"/>
       <c r="E74" s="72"/>
@@ -11001,7 +16143,7 @@
     <row r="75" spans="2:13">
       <c r="B75" s="70"/>
       <c r="C75" s="81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D75" s="72"/>
       <c r="E75" s="72"/>
@@ -11017,7 +16159,7 @@
     <row r="76" spans="2:13">
       <c r="B76" s="70"/>
       <c r="C76" s="81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D76" s="72"/>
       <c r="E76" s="72"/>
@@ -11033,7 +16175,7 @@
     <row r="77" spans="2:13">
       <c r="B77" s="70"/>
       <c r="C77" s="81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D77" s="72"/>
       <c r="E77" s="72"/>
@@ -11049,7 +16191,7 @@
     <row r="78" spans="2:13">
       <c r="B78" s="70"/>
       <c r="C78" s="81" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D78" s="72"/>
       <c r="E78" s="72"/>
@@ -11065,7 +16207,7 @@
     <row r="79" spans="2:13">
       <c r="B79" s="70"/>
       <c r="C79" s="81" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D79" s="72"/>
       <c r="E79" s="72"/>
@@ -11081,7 +16223,7 @@
     <row r="80" spans="2:13">
       <c r="B80" s="70"/>
       <c r="C80" s="81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D80" s="72"/>
       <c r="E80" s="72"/>
@@ -11111,7 +16253,7 @@
     <row r="82" spans="2:13">
       <c r="B82" s="70"/>
       <c r="C82" s="83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" s="72"/>
       <c r="E82" s="72"/>
@@ -11127,7 +16269,7 @@
     <row r="83" spans="2:13">
       <c r="B83" s="70"/>
       <c r="C83" s="84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83" s="72"/>
       <c r="E83" s="72"/>
@@ -11143,7 +16285,7 @@
     <row r="84" spans="2:13">
       <c r="B84" s="70"/>
       <c r="C84" s="84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D84" s="72"/>
       <c r="E84" s="72"/>
@@ -11159,7 +16301,7 @@
     <row r="85" spans="2:13">
       <c r="B85" s="70"/>
       <c r="C85" s="77" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D85" s="72"/>
       <c r="E85" s="72"/>
@@ -11189,7 +16331,7 @@
     <row r="87" spans="2:13">
       <c r="B87" s="70"/>
       <c r="C87" s="74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D87" s="72"/>
       <c r="E87" s="72"/>
@@ -11205,7 +16347,7 @@
     <row r="88" spans="2:13">
       <c r="B88" s="70"/>
       <c r="C88" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D88" s="72"/>
       <c r="E88" s="72"/>
@@ -11221,7 +16363,7 @@
     <row r="89" spans="2:13">
       <c r="B89" s="70"/>
       <c r="C89" s="74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D89" s="72"/>
       <c r="E89" s="72"/>
@@ -11251,7 +16393,7 @@
     <row r="91" spans="2:13">
       <c r="B91" s="70"/>
       <c r="C91" s="74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D91" s="72"/>
       <c r="E91" s="72"/>
@@ -11267,7 +16409,7 @@
     <row r="92" spans="2:13">
       <c r="B92" s="70"/>
       <c r="C92" s="74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D92" s="72"/>
       <c r="E92" s="72"/>
@@ -11283,7 +16425,7 @@
     <row r="93" spans="2:13">
       <c r="B93" s="70"/>
       <c r="C93" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D93" s="72"/>
       <c r="E93" s="72"/>
@@ -11313,7 +16455,7 @@
     <row r="95" spans="2:13">
       <c r="B95" s="70"/>
       <c r="C95" s="74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D95" s="72"/>
       <c r="E95" s="72"/>
@@ -11329,7 +16471,7 @@
     <row r="96" spans="2:13">
       <c r="B96" s="70"/>
       <c r="C96" s="74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D96" s="72"/>
       <c r="E96" s="72"/>
@@ -11375,7 +16517,7 @@
     <row r="99" spans="2:13">
       <c r="B99" s="70"/>
       <c r="C99" s="74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D99" s="72"/>
       <c r="E99" s="72"/>
@@ -11391,7 +16533,7 @@
     <row r="100" spans="2:13">
       <c r="B100" s="70"/>
       <c r="C100" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D100" s="72"/>
       <c r="E100" s="72"/>
@@ -11407,7 +16549,7 @@
     <row r="101" spans="2:13">
       <c r="B101" s="70"/>
       <c r="C101" s="74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D101" s="72"/>
       <c r="E101" s="72"/>
@@ -11423,7 +16565,7 @@
     <row r="102" spans="2:13">
       <c r="B102" s="70"/>
       <c r="C102" s="74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D102" s="72"/>
       <c r="E102" s="72"/>
@@ -11439,7 +16581,7 @@
     <row r="103" spans="2:13">
       <c r="B103" s="70"/>
       <c r="C103" s="74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D103" s="72"/>
       <c r="E103" s="72"/>
@@ -11455,7 +16597,7 @@
     <row r="104" spans="2:13">
       <c r="B104" s="70"/>
       <c r="C104" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D104" s="72"/>
       <c r="E104" s="72"/>
@@ -11471,7 +16613,7 @@
     <row r="105" spans="2:13">
       <c r="B105" s="70"/>
       <c r="C105" s="74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D105" s="72"/>
       <c r="E105" s="72"/>
@@ -11487,7 +16629,7 @@
     <row r="106" spans="2:13">
       <c r="B106" s="70"/>
       <c r="C106" s="74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D106" s="72"/>
       <c r="E106" s="72"/>
@@ -11503,7 +16645,7 @@
     <row r="107" spans="2:13">
       <c r="B107" s="70"/>
       <c r="C107" s="74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D107" s="72"/>
       <c r="E107" s="72"/>
@@ -11519,7 +16661,7 @@
     <row r="108" spans="2:13">
       <c r="B108" s="70"/>
       <c r="C108" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D108" s="72"/>
       <c r="E108" s="72"/>
@@ -11565,7 +16707,7 @@
     <row r="111" spans="2:13">
       <c r="B111" s="70"/>
       <c r="C111" s="74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D111" s="72"/>
       <c r="E111" s="72"/>
@@ -11581,7 +16723,7 @@
     <row r="112" spans="2:13">
       <c r="B112" s="70"/>
       <c r="C112" s="74" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D112" s="72"/>
       <c r="E112" s="72"/>
@@ -11597,7 +16739,7 @@
     <row r="113" spans="2:13">
       <c r="B113" s="70"/>
       <c r="C113" s="74" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D113" s="72"/>
       <c r="E113" s="72"/>
@@ -11613,7 +16755,7 @@
     <row r="114" spans="2:13">
       <c r="B114" s="70"/>
       <c r="C114" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D114" s="72"/>
       <c r="E114" s="72"/>
@@ -11659,7 +16801,7 @@
     <row r="117" spans="2:13">
       <c r="B117" s="70"/>
       <c r="C117" s="74" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D117" s="72"/>
       <c r="E117" s="72"/>
@@ -11675,7 +16817,7 @@
     <row r="118" spans="2:13">
       <c r="B118" s="70"/>
       <c r="C118" s="74" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D118" s="72"/>
       <c r="E118" s="72"/>
@@ -11691,7 +16833,7 @@
     <row r="119" spans="2:13">
       <c r="B119" s="70"/>
       <c r="C119" s="74" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D119" s="72"/>
       <c r="E119" s="72"/>
@@ -11707,7 +16849,7 @@
     <row r="120" spans="2:13">
       <c r="B120" s="70"/>
       <c r="C120" s="74" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D120" s="72"/>
       <c r="E120" s="72"/>
@@ -11723,7 +16865,7 @@
     <row r="121" spans="2:13">
       <c r="B121" s="70"/>
       <c r="C121" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D121" s="72"/>
       <c r="E121" s="72"/>
@@ -11783,7 +16925,7 @@
     <row r="125" spans="2:13">
       <c r="B125" s="70"/>
       <c r="C125" s="74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D125" s="72"/>
       <c r="E125" s="72"/>
@@ -11799,7 +16941,7 @@
     <row r="126" spans="2:13">
       <c r="B126" s="70"/>
       <c r="C126" s="84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D126" s="72"/>
       <c r="E126" s="72"/>
@@ -11815,7 +16957,7 @@
     <row r="127" spans="2:13">
       <c r="B127" s="70"/>
       <c r="C127" s="84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D127" s="72"/>
       <c r="E127" s="72"/>
@@ -11831,7 +16973,7 @@
     <row r="128" spans="2:13">
       <c r="B128" s="70"/>
       <c r="C128" s="84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D128" s="72"/>
       <c r="E128" s="72"/>
@@ -11861,7 +17003,7 @@
     <row r="130" spans="2:13">
       <c r="B130" s="70"/>
       <c r="C130" s="74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D130" s="72"/>
       <c r="E130" s="72"/>
@@ -11877,7 +17019,7 @@
     <row r="131" spans="2:13">
       <c r="B131" s="70"/>
       <c r="C131" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D131" s="72"/>
       <c r="E131" s="72"/>
@@ -11893,7 +17035,7 @@
     <row r="132" spans="2:13">
       <c r="B132" s="70"/>
       <c r="C132" s="84" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D132" s="72"/>
       <c r="E132" s="72"/>
@@ -11923,7 +17065,7 @@
     <row r="134" spans="2:13">
       <c r="B134" s="70"/>
       <c r="C134" s="84" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D134" s="72"/>
       <c r="E134" s="72"/>
@@ -11939,7 +17081,7 @@
     <row r="135" spans="2:13">
       <c r="B135" s="70"/>
       <c r="C135" s="84" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D135" s="72"/>
       <c r="E135" s="72"/>
@@ -11955,7 +17097,7 @@
     <row r="136" spans="2:13">
       <c r="B136" s="70"/>
       <c r="C136" s="84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D136" s="72"/>
       <c r="E136" s="72"/>
@@ -11971,7 +17113,7 @@
     <row r="137" spans="2:13">
       <c r="B137" s="70"/>
       <c r="C137" s="84" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D137" s="72"/>
       <c r="E137" s="72"/>
@@ -11987,7 +17129,7 @@
     <row r="138" spans="2:13">
       <c r="B138" s="70"/>
       <c r="C138" s="74" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D138" s="72"/>
       <c r="E138" s="72"/>
@@ -12003,7 +17145,7 @@
     <row r="139" spans="2:13">
       <c r="B139" s="70"/>
       <c r="C139" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D139" s="72"/>
       <c r="E139" s="72"/>
@@ -12033,7 +17175,7 @@
     <row r="141" spans="2:13">
       <c r="B141" s="70"/>
       <c r="C141" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D141" s="72"/>
       <c r="E141" s="72"/>
@@ -12049,7 +17191,7 @@
     <row r="142" spans="2:13">
       <c r="B142" s="70"/>
       <c r="C142" s="84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D142" s="72"/>
       <c r="E142" s="72"/>
@@ -12065,7 +17207,7 @@
     <row r="143" spans="2:13">
       <c r="B143" s="70"/>
       <c r="C143" s="84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" s="72"/>
       <c r="E143" s="72"/>
@@ -12081,7 +17223,7 @@
     <row r="144" spans="2:13">
       <c r="B144" s="70"/>
       <c r="C144" s="84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D144" s="72"/>
       <c r="E144" s="72"/>
@@ -12097,7 +17239,7 @@
     <row r="145" spans="2:13">
       <c r="B145" s="70"/>
       <c r="C145" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D145" s="72"/>
       <c r="E145" s="72"/>
@@ -12113,7 +17255,7 @@
     <row r="146" spans="2:13">
       <c r="B146" s="70"/>
       <c r="C146" s="85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D146" s="72"/>
       <c r="E146" s="72"/>
@@ -12129,7 +17271,7 @@
     <row r="147" spans="2:13">
       <c r="B147" s="70"/>
       <c r="C147" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D147" s="72"/>
       <c r="E147" s="72"/>
@@ -12145,7 +17287,7 @@
     <row r="148" spans="2:13">
       <c r="B148" s="70"/>
       <c r="C148" s="74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D148" s="72"/>
       <c r="E148" s="72"/>
@@ -12161,7 +17303,7 @@
     <row r="149" spans="2:13">
       <c r="B149" s="70"/>
       <c r="C149" s="74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D149" s="72"/>
       <c r="E149" s="72"/>
@@ -12177,7 +17319,7 @@
     <row r="150" spans="2:13">
       <c r="B150" s="70"/>
       <c r="C150" s="74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D150" s="72"/>
       <c r="E150" s="72"/>
@@ -12193,7 +17335,7 @@
     <row r="151" spans="2:13">
       <c r="B151" s="70"/>
       <c r="C151" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D151" s="72"/>
       <c r="E151" s="72"/>
@@ -12223,7 +17365,7 @@
     <row r="153" spans="2:13">
       <c r="B153" s="70"/>
       <c r="C153" s="74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D153" s="72"/>
       <c r="E153" s="72"/>
@@ -12239,7 +17381,7 @@
     <row r="154" spans="2:13">
       <c r="B154" s="70"/>
       <c r="C154" s="84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D154" s="72"/>
       <c r="E154" s="72"/>
@@ -12255,7 +17397,7 @@
     <row r="155" spans="2:13">
       <c r="B155" s="70"/>
       <c r="C155" s="84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D155" s="72"/>
       <c r="E155" s="72"/>
@@ -12271,7 +17413,7 @@
     <row r="156" spans="2:13">
       <c r="B156" s="70"/>
       <c r="C156" s="84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D156" s="72"/>
       <c r="E156" s="72"/>
@@ -12287,7 +17429,7 @@
     <row r="157" spans="2:13">
       <c r="B157" s="70"/>
       <c r="C157" s="84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D157" s="72"/>
       <c r="E157" s="72"/>
@@ -12303,7 +17445,7 @@
     <row r="158" spans="2:13">
       <c r="B158" s="70"/>
       <c r="C158" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D158" s="72"/>
       <c r="E158" s="72"/>
@@ -12319,7 +17461,7 @@
     <row r="159" spans="2:13">
       <c r="B159" s="70"/>
       <c r="C159" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D159" s="72"/>
       <c r="E159" s="72"/>
@@ -12335,7 +17477,7 @@
     <row r="160" spans="2:13">
       <c r="B160" s="70"/>
       <c r="C160" s="74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D160" s="72"/>
       <c r="E160" s="72"/>
@@ -12351,7 +17493,7 @@
     <row r="161" spans="2:13">
       <c r="B161" s="70"/>
       <c r="C161" s="74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D161" s="72"/>
       <c r="E161" s="72"/>
@@ -12367,7 +17509,7 @@
     <row r="162" spans="2:13">
       <c r="B162" s="70"/>
       <c r="C162" s="74" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D162" s="72"/>
       <c r="E162" s="72"/>
@@ -12383,7 +17525,7 @@
     <row r="163" spans="2:13">
       <c r="B163" s="70"/>
       <c r="C163" s="74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D163" s="72"/>
       <c r="E163" s="72"/>
@@ -12399,7 +17541,7 @@
     <row r="164" spans="2:13">
       <c r="B164" s="70"/>
       <c r="C164" s="74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D164" s="72"/>
       <c r="E164" s="72"/>
@@ -12415,7 +17557,7 @@
     <row r="165" spans="2:13">
       <c r="B165" s="70"/>
       <c r="C165" s="74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D165" s="72"/>
       <c r="E165" s="72"/>
@@ -12431,7 +17573,7 @@
     <row r="166" spans="2:13">
       <c r="B166" s="70"/>
       <c r="C166" s="74" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D166" s="72"/>
       <c r="E166" s="72"/>
@@ -12447,7 +17589,7 @@
     <row r="167" spans="2:13">
       <c r="B167" s="70"/>
       <c r="C167" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D167" s="72"/>
       <c r="E167" s="72"/>
@@ -12477,7 +17619,7 @@
     <row r="169" spans="2:13">
       <c r="B169" s="70"/>
       <c r="C169" s="74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D169" s="72"/>
       <c r="E169" s="72"/>
@@ -12493,7 +17635,7 @@
     <row r="170" spans="2:13">
       <c r="B170" s="70"/>
       <c r="C170" s="84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D170" s="72"/>
       <c r="E170" s="72"/>
@@ -12509,7 +17651,7 @@
     <row r="171" spans="2:13">
       <c r="B171" s="70"/>
       <c r="C171" s="84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D171" s="72"/>
       <c r="E171" s="72"/>
@@ -12525,7 +17667,7 @@
     <row r="172" spans="2:13">
       <c r="B172" s="70"/>
       <c r="C172" s="84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D172" s="72"/>
       <c r="E172" s="72"/>
@@ -12541,7 +17683,7 @@
     <row r="173" spans="2:13">
       <c r="B173" s="70"/>
       <c r="C173" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D173" s="72"/>
       <c r="E173" s="72"/>
@@ -12557,7 +17699,7 @@
     <row r="174" spans="2:13">
       <c r="B174" s="70"/>
       <c r="C174" s="85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D174" s="72"/>
       <c r="E174" s="72"/>
@@ -12573,7 +17715,7 @@
     <row r="175" spans="2:13">
       <c r="B175" s="70"/>
       <c r="C175" s="74" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D175" s="72"/>
       <c r="E175" s="72"/>
@@ -12589,7 +17731,7 @@
     <row r="176" spans="2:13">
       <c r="B176" s="70"/>
       <c r="C176" s="74" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D176" s="72"/>
       <c r="E176" s="72"/>
@@ -12605,7 +17747,7 @@
     <row r="177" spans="2:13">
       <c r="B177" s="70"/>
       <c r="C177" s="74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D177" s="72"/>
       <c r="E177" s="72"/>
@@ -12621,7 +17763,7 @@
     <row r="178" spans="2:13">
       <c r="B178" s="70"/>
       <c r="C178" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D178" s="72"/>
       <c r="E178" s="72"/>
@@ -12651,7 +17793,7 @@
     <row r="180" spans="2:13">
       <c r="B180" s="70"/>
       <c r="C180" s="74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D180" s="72"/>
       <c r="E180" s="72"/>
@@ -12667,7 +17809,7 @@
     <row r="181" spans="2:13">
       <c r="B181" s="70"/>
       <c r="C181" s="84" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D181" s="72"/>
       <c r="E181" s="72"/>
@@ -12683,7 +17825,7 @@
     <row r="182" spans="2:13">
       <c r="B182" s="70"/>
       <c r="C182" s="84" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D182" s="72"/>
       <c r="E182" s="72"/>
@@ -12699,7 +17841,7 @@
     <row r="183" spans="2:13">
       <c r="B183" s="70"/>
       <c r="C183" s="84" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D183" s="72"/>
       <c r="E183" s="72"/>
@@ -12715,7 +17857,7 @@
     <row r="184" spans="2:13">
       <c r="B184" s="70"/>
       <c r="C184" s="84" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D184" s="72"/>
       <c r="E184" s="72"/>
@@ -12731,7 +17873,7 @@
     <row r="185" spans="2:13">
       <c r="B185" s="70"/>
       <c r="C185" s="84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D185" s="72"/>
       <c r="E185" s="72"/>
@@ -12747,7 +17889,7 @@
     <row r="186" spans="2:13">
       <c r="B186" s="70"/>
       <c r="C186" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D186" s="72"/>
       <c r="E186" s="72"/>
@@ -12763,7 +17905,7 @@
     <row r="187" spans="2:13">
       <c r="B187" s="70"/>
       <c r="C187" s="85" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D187" s="72"/>
       <c r="E187" s="72"/>
@@ -12779,7 +17921,7 @@
     <row r="188" spans="2:13">
       <c r="B188" s="70"/>
       <c r="C188" s="74" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D188" s="72"/>
       <c r="E188" s="72"/>
@@ -12795,7 +17937,7 @@
     <row r="189" spans="2:13">
       <c r="B189" s="70"/>
       <c r="C189" s="74" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D189" s="72"/>
       <c r="E189" s="72"/>
@@ -12811,7 +17953,7 @@
     <row r="190" spans="2:13">
       <c r="B190" s="70"/>
       <c r="C190" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D190" s="72"/>
       <c r="E190" s="72"/>
@@ -12841,7 +17983,7 @@
     <row r="192" spans="2:13">
       <c r="B192" s="70"/>
       <c r="C192" s="74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D192" s="72"/>
       <c r="E192" s="72"/>
@@ -12857,7 +17999,7 @@
     <row r="193" spans="2:13">
       <c r="B193" s="70"/>
       <c r="C193" s="84" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D193" s="72"/>
       <c r="E193" s="72"/>
@@ -12873,7 +18015,7 @@
     <row r="194" spans="2:13">
       <c r="B194" s="70"/>
       <c r="C194" s="84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D194" s="72"/>
       <c r="E194" s="72"/>
@@ -12889,7 +18031,7 @@
     <row r="195" spans="2:13">
       <c r="B195" s="70"/>
       <c r="C195" s="84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D195" s="72"/>
       <c r="E195" s="72"/>
@@ -12905,7 +18047,7 @@
     <row r="196" spans="2:13">
       <c r="B196" s="70"/>
       <c r="C196" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D196" s="72"/>
       <c r="E196" s="72"/>
@@ -12921,7 +18063,7 @@
     <row r="197" spans="2:13">
       <c r="B197" s="70"/>
       <c r="C197" s="85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D197" s="72"/>
       <c r="E197" s="72"/>
@@ -12937,7 +18079,7 @@
     <row r="198" spans="2:13">
       <c r="B198" s="70"/>
       <c r="C198" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D198" s="72"/>
       <c r="E198" s="72"/>
@@ -12953,7 +18095,7 @@
     <row r="199" spans="2:13">
       <c r="B199" s="70"/>
       <c r="C199" s="74" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D199" s="72"/>
       <c r="E199" s="72"/>
@@ -12969,7 +18111,7 @@
     <row r="200" spans="2:13">
       <c r="B200" s="70"/>
       <c r="C200" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D200" s="72"/>
       <c r="E200" s="72"/>
@@ -12985,7 +18127,7 @@
     <row r="201" spans="2:13">
       <c r="B201" s="70"/>
       <c r="C201" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D201" s="72"/>
       <c r="E201" s="72"/>
@@ -13015,7 +18157,7 @@
     <row r="203" spans="2:13">
       <c r="B203" s="70"/>
       <c r="C203" s="74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D203" s="72"/>
       <c r="E203" s="72"/>
@@ -13031,7 +18173,7 @@
     <row r="204" spans="2:13">
       <c r="B204" s="70"/>
       <c r="C204" s="84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D204" s="72"/>
       <c r="E204" s="72"/>
@@ -13047,7 +18189,7 @@
     <row r="205" spans="2:13">
       <c r="B205" s="70"/>
       <c r="C205" s="74" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D205" s="72"/>
       <c r="E205" s="72"/>
@@ -13063,7 +18205,7 @@
     <row r="206" spans="2:13">
       <c r="B206" s="70"/>
       <c r="C206" s="74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D206" s="72"/>
       <c r="E206" s="72"/>
@@ -13079,7 +18221,7 @@
     <row r="207" spans="2:13">
       <c r="B207" s="70"/>
       <c r="C207" s="74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D207" s="72"/>
       <c r="E207" s="72"/>
@@ -13095,7 +18237,7 @@
     <row r="208" spans="2:13">
       <c r="B208" s="70"/>
       <c r="C208" s="74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D208" s="72"/>
       <c r="E208" s="72"/>
@@ -13111,7 +18253,7 @@
     <row r="209" spans="2:13">
       <c r="B209" s="70"/>
       <c r="C209" s="74" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D209" s="72"/>
       <c r="E209" s="72"/>
@@ -13127,7 +18269,7 @@
     <row r="210" spans="2:13">
       <c r="B210" s="70"/>
       <c r="C210" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D210" s="72"/>
       <c r="E210" s="72"/>
@@ -13157,7 +18299,7 @@
     <row r="212" spans="2:13">
       <c r="B212" s="70"/>
       <c r="C212" s="74" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D212" s="72"/>
       <c r="E212" s="72"/>
@@ -13173,7 +18315,7 @@
     <row r="213" spans="2:13">
       <c r="B213" s="70"/>
       <c r="C213" s="84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D213" s="72"/>
       <c r="E213" s="72"/>
@@ -13189,7 +18331,7 @@
     <row r="214" spans="2:13">
       <c r="B214" s="70"/>
       <c r="C214" s="74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D214" s="72"/>
       <c r="E214" s="72"/>
@@ -13205,7 +18347,7 @@
     <row r="215" spans="2:13">
       <c r="B215" s="70"/>
       <c r="C215" s="74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D215" s="72"/>
       <c r="E215" s="72"/>
@@ -13221,7 +18363,7 @@
     <row r="216" spans="2:13">
       <c r="B216" s="70"/>
       <c r="C216" s="74" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D216" s="72"/>
       <c r="E216" s="72"/>
@@ -13237,7 +18379,7 @@
     <row r="217" spans="2:13">
       <c r="B217" s="70"/>
       <c r="C217" s="74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D217" s="72"/>
       <c r="E217" s="72"/>
@@ -13253,7 +18395,7 @@
     <row r="218" spans="2:13">
       <c r="B218" s="70"/>
       <c r="C218" s="74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D218" s="72"/>
       <c r="E218" s="72"/>
@@ -13269,7 +18411,7 @@
     <row r="219" spans="2:13">
       <c r="B219" s="70"/>
       <c r="C219" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D219" s="72"/>
       <c r="E219" s="72"/>
@@ -13341,6 +18483,1080 @@
       <c r="K223" s="79"/>
       <c r="L223" s="79"/>
       <c r="M223" s="80"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:C230"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:3">
+      <c r="C8" s="88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="89"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="88" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="88" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="88" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="88" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="88" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="88" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="88" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="88" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="88" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="88" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="89"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="91" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="91" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="63" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="92"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="93" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="93" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="91" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="92"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="93" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="91" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="92"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="91" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="93" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="92"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="93" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="93" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="93" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="92"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="93" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="91" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="93" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="92"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="93" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="91" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="93" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="92"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="93" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="93" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="92"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="93" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="93" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="92"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="93" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="93" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="92"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="91" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="91" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="94" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="93" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="93" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="93" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="93" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="93" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="93" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="93" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="93" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="93" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="93" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="93" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="93" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="93" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="93" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="93" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="93" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="93" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="93" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="93" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="93" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="93" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="93" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="92"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="92"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="93" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="93" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="93" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="93" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="92"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="93" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="91" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="91" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="91" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="91" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="91" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="91" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="93" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="93" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="93" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="92"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="93" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="91" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="91" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="91" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="91" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="93" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="92"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="93" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="93" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="93" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="93" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="92"/>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="93" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="91" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="93" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="92"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="93" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="91" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="93" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="95" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="92"/>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="93" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="91" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="91" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="93" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="94" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="93" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="91" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="93" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="93" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="93" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="93" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="93" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="93" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="93" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="93" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="93" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="93" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="93" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="92"/>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="93" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="92"/>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="93" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="91" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="93" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="93" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="93" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="93" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="92"/>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="93" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="93" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="92"/>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="93" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="93" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="93" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="92"/>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="93" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="92"/>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="92"/>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="91" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="91" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="93" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="94" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="93" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="93" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="91" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="93" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" s="93" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="91" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="93" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="92"/>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" s="93" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="91" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="93" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" s="93" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="93" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" s="93" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="93" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="92"/>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="92"/>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="93" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="91" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="93" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="93" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" s="93" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="93" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="93" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="92"/>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="93" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="91" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="93" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="93" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="93" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="93" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="92"/>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="93" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16269,17 +22485,17 @@
     </row>
     <row r="163" spans="3:4">
       <c r="C163" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="3:4">
       <c r="D166" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="3:4">
@@ -16299,27 +22515,27 @@
     </row>
     <row r="171" spans="3:4">
       <c r="C171" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="3:4">
       <c r="D172" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="3:4">
       <c r="D175" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="3:4">
       <c r="D176" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="D178" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="3:5">
@@ -16349,12 +22565,12 @@
     </row>
     <row r="186" spans="3:5">
       <c r="D186" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="3:5">
       <c r="D187" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="3:5">
@@ -16790,9 +23006,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D91"/>
+  <dimension ref="C4:E221"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -16801,7 +23019,7 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -16816,97 +23034,102 @@
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3" t="s">
-        <v>322</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="19">
+      <c r="C13" s="60" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="D27" s="86" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="D31" s="66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="D32" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -16914,59 +23137,59 @@
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D34" s="42"/>
     </row>
     <row r="36" spans="3:4">
       <c r="D36" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="D38" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="42" spans="3:4" ht="20" customHeight="1">
       <c r="D42" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="D44" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="D45" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="D46" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="D50" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="D51" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="3:4">
@@ -16974,17 +23197,17 @@
     </row>
     <row r="53" spans="3:4">
       <c r="D53" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="D57" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="3:4">
@@ -16992,82 +23215,528 @@
     </row>
     <row r="59" spans="3:4">
       <c r="D59" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="D61" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="D63" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="D65" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="D70" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="D72" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="D74" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" s="55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="D79" s="45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="D81" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="D83" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="D85" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="D86" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="D88" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="3:4">
-      <c r="C91" s="3" t="s">
-        <v>489</v>
+      <c r="C91" s="55" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="D95" s="45" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" ht="19">
+      <c r="C98" s="60" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="D100" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="D102" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="D104" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="55" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="D108" s="42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="D109" s="87" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="D110" s="87" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="D111" s="87" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="D112" s="51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="52" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="51" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="51" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="51" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="87" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="51" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="47" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="45" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="42" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="D129" s="42" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="D130" s="87" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="D131" s="51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="D132" s="51" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="D133" s="51" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="D134" s="51" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="D135" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="D140" s="42" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="D141" s="42" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="D143" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="D145" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="D147" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="D152" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="D153" s="45"/>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="D154" s="42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="D155" s="42" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="D156" s="46"/>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="D157" s="42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="D158" s="42" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="D160" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="D165" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="D167" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="D169" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="C172" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4">
+      <c r="D174" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="D176" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="D177" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="D178" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="D180" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5">
+      <c r="D182" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5">
+      <c r="E184" s="66" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="D189" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="D191" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5">
+      <c r="D193" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5">
+      <c r="E195" s="45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5">
+      <c r="E196" s="42" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5">
+      <c r="E197" s="42" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5">
+      <c r="E198" s="42" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5">
+      <c r="E199" s="51" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5">
+      <c r="C201" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5">
+      <c r="D203" s="45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5">
+      <c r="D204" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5">
+      <c r="D205" s="52" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5">
+      <c r="D206" s="51" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5">
+      <c r="D207" s="87" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5">
+      <c r="D208" s="51" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="51" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="51" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="51" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="51" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="51" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="51" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
